--- a/os_fe.xlsx
+++ b/os_fe.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57289A88-3206-EA4C-8CC4-9B749BA855C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{225DBF8D-5BB3-0742-8C76-C246B837A752}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="undefined.xlsx" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5382" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5478" uniqueCount="1264">
   <si>
     <t>文件目录</t>
   </si>
@@ -1424,7 +1424,7 @@
     <t>农、林、牧、渔业</t>
   </si>
   <si>
-    <t>Agriculture, Forestry, Animal Husbandry, and Fishery Industries</t>
+    <t>Agriculture, Forestry, Animal Husbandry, and Fishery</t>
   </si>
   <si>
     <t>createEnter.js10</t>
@@ -1433,7 +1433,7 @@
     <t>采矿业</t>
   </si>
   <si>
-    <t>Mining Industry</t>
+    <t>Mining</t>
   </si>
   <si>
     <t>createEnter.js11</t>
@@ -1451,7 +1451,7 @@
     <t>电力、热力、燃气及水的生产和供应业</t>
   </si>
   <si>
-    <t>Electricity/Heating Power/Gas/Water Production and Supply Industry</t>
+    <t>Electricity/Heating Power/Gas/Water Production and Supply</t>
   </si>
   <si>
     <t>createEnter.js13</t>
@@ -1469,7 +1469,7 @@
     <t>建筑业</t>
   </si>
   <si>
-    <t>Construction Industry</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>createEnter.js15</t>
@@ -1487,7 +1487,7 @@
     <t>信息传输、计算机服务和软件业</t>
   </si>
   <si>
-    <t>Info Transmission, Computer Service and Software Industry</t>
+    <t>Info Transmission, Computer Service and Software</t>
   </si>
   <si>
     <t>createEnter.js17</t>
@@ -1505,7 +1505,7 @@
     <t>住宿、餐饮业</t>
   </si>
   <si>
-    <t>Accommodation and Catering Industry</t>
+    <t>Accommodation and Catering</t>
   </si>
   <si>
     <t>createEnter.js19</t>
@@ -1514,7 +1514,7 @@
     <t>金融、保险业</t>
   </si>
   <si>
-    <t>Finance and Insurance Industries</t>
+    <t>Finance and Insurance</t>
   </si>
   <si>
     <t>createEnter.js20</t>
@@ -1523,7 +1523,7 @@
     <t>房地产业</t>
   </si>
   <si>
-    <t>Real Estate Industry</t>
+    <t>Real Estate</t>
   </si>
   <si>
     <t>createEnter.js21</t>
@@ -1550,7 +1550,7 @@
     <t>水利、环境和公共设施管理业</t>
   </si>
   <si>
-    <t>Water, Environment and Public Facilities Management Industry</t>
+    <t>Water, Environment and Public Facilities Management</t>
   </si>
   <si>
     <t>createEnter.js24</t>
@@ -1577,7 +1577,7 @@
     <t>卫生、社会保障和社会服务业</t>
   </si>
   <si>
-    <t>Health, Social Security and Social Service Industry</t>
+    <t>Health, Social Security and Social Service</t>
   </si>
   <si>
     <t>createEnter.js27</t>
@@ -2318,45 +2318,105 @@
     <t>personal.js24</t>
   </si>
   <si>
+    <t>pages/homepage/index-group.js.cn.i18n</t>
+  </si>
+  <si>
+    <t>index-group.js.cn.i18n</t>
+  </si>
+  <si>
+    <t>index-group.js0</t>
+  </si>
+  <si>
+    <t>资料</t>
+  </si>
+  <si>
+    <t>index-group.js1</t>
+  </si>
+  <si>
+    <t>发言</t>
+  </si>
+  <si>
+    <t>index-group.js2</t>
+  </si>
+  <si>
+    <t>index-group.js3</t>
+  </si>
+  <si>
+    <t>个人主页</t>
+  </si>
+  <si>
+    <t>index-group.js4</t>
+  </si>
+  <si>
+    <t>的个人主页</t>
+  </si>
+  <si>
+    <t>index-group.js5</t>
+  </si>
+  <si>
+    <t>发消息</t>
+  </si>
+  <si>
+    <t>index-group.js6</t>
+  </si>
+  <si>
+    <t>发邮件</t>
+  </si>
+  <si>
+    <t>index-group.js7</t>
+  </si>
+  <si>
+    <t>发荣耀</t>
+  </si>
+  <si>
+    <t>pages/homepage/index-url.js.cn.i18n</t>
+  </si>
+  <si>
+    <t>index-url.js.cn.i18n</t>
+  </si>
+  <si>
+    <t>index-url.js0</t>
+  </si>
+  <si>
+    <t>index-url.js1</t>
+  </si>
+  <si>
+    <t>index-url.js2</t>
+  </si>
+  <si>
+    <t>index-url.js3</t>
+  </si>
+  <si>
+    <t>index-url.js4</t>
+  </si>
+  <si>
+    <t>index-url.js5</t>
+  </si>
+  <si>
+    <t>index-url.js6</t>
+  </si>
+  <si>
+    <t>index-url.js7</t>
+  </si>
+  <si>
     <t>pages/homepage/index.js.cn.i18n</t>
   </si>
   <si>
-    <t>资料</t>
-  </si>
-  <si>
     <t>Profile</t>
   </si>
   <si>
-    <t>发言</t>
-  </si>
-  <si>
     <t>Post</t>
   </si>
   <si>
-    <t>个人主页</t>
-  </si>
-  <si>
     <t>Homepage</t>
   </si>
   <si>
-    <t>的个人主页</t>
-  </si>
-  <si>
     <t>s homepage</t>
   </si>
   <si>
-    <t>发消息</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
-    <t>发邮件</t>
-  </si>
-  <si>
-    <t>发荣耀</t>
-  </si>
-  <si>
     <t>Send Honor</t>
   </si>
   <si>
@@ -3744,10 +3804,6 @@
   </si>
   <si>
     <t>Obtain Amt Sign</t>
-  </si>
-  <si>
-    <t>加载中...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Loading…</t>
@@ -4135,16 +4191,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H675"/>
+  <dimension ref="A1:H691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="7" max="7" width="62.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -5281,10 +5334,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>1243</v>
+        <v>103</v>
       </c>
       <c r="G44" t="s">
-        <v>1244</v>
+        <v>1263</v>
       </c>
       <c r="H44" t="s">
         <v>7</v>
@@ -10590,8 +10643,8 @@
       <c r="G248" t="s">
         <v>469</v>
       </c>
-      <c r="H248" t="s">
-        <v>7</v>
+      <c r="H248">
+        <v>20180928</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -10616,8 +10669,8 @@
       <c r="G249" t="s">
         <v>472</v>
       </c>
-      <c r="H249" t="s">
-        <v>7</v>
+      <c r="H249">
+        <v>20180928</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -10668,8 +10721,8 @@
       <c r="G251" t="s">
         <v>478</v>
       </c>
-      <c r="H251" t="s">
-        <v>7</v>
+      <c r="H251">
+        <v>20180928</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -10720,8 +10773,8 @@
       <c r="G253" t="s">
         <v>484</v>
       </c>
-      <c r="H253" t="s">
-        <v>7</v>
+      <c r="H253">
+        <v>20180928</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -10772,8 +10825,8 @@
       <c r="G255" t="s">
         <v>490</v>
       </c>
-      <c r="H255" t="s">
-        <v>7</v>
+      <c r="H255">
+        <v>20180928</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -10824,8 +10877,8 @@
       <c r="G257" t="s">
         <v>496</v>
       </c>
-      <c r="H257" t="s">
-        <v>7</v>
+      <c r="H257">
+        <v>20180928</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -10850,8 +10903,8 @@
       <c r="G258" t="s">
         <v>499</v>
       </c>
-      <c r="H258" t="s">
-        <v>7</v>
+      <c r="H258">
+        <v>20180928</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -10876,8 +10929,8 @@
       <c r="G259" t="s">
         <v>502</v>
       </c>
-      <c r="H259" t="s">
-        <v>7</v>
+      <c r="H259">
+        <v>20180928</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -10954,8 +11007,8 @@
       <c r="G262" t="s">
         <v>511</v>
       </c>
-      <c r="H262" t="s">
-        <v>7</v>
+      <c r="H262">
+        <v>20180928</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -11032,8 +11085,8 @@
       <c r="G265" t="s">
         <v>520</v>
       </c>
-      <c r="H265" t="s">
-        <v>7</v>
+      <c r="H265">
+        <v>20180928</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -11942,8 +11995,8 @@
       <c r="G300" t="s">
         <v>469</v>
       </c>
-      <c r="H300" t="s">
-        <v>7</v>
+      <c r="H300">
+        <v>20180928</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -11968,8 +12021,8 @@
       <c r="G301" t="s">
         <v>472</v>
       </c>
-      <c r="H301" t="s">
-        <v>7</v>
+      <c r="H301">
+        <v>20180928</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -12020,8 +12073,8 @@
       <c r="G303" t="s">
         <v>478</v>
       </c>
-      <c r="H303" t="s">
-        <v>7</v>
+      <c r="H303">
+        <v>20180928</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -12072,8 +12125,8 @@
       <c r="G305" t="s">
         <v>484</v>
       </c>
-      <c r="H305" t="s">
-        <v>7</v>
+      <c r="H305">
+        <v>20180928</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -12124,8 +12177,8 @@
       <c r="G307" t="s">
         <v>490</v>
       </c>
-      <c r="H307" t="s">
-        <v>7</v>
+      <c r="H307">
+        <v>20180928</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -12176,8 +12229,8 @@
       <c r="G309" t="s">
         <v>496</v>
       </c>
-      <c r="H309" t="s">
-        <v>7</v>
+      <c r="H309">
+        <v>20180928</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -12202,8 +12255,8 @@
       <c r="G310" t="s">
         <v>499</v>
       </c>
-      <c r="H310" t="s">
-        <v>7</v>
+      <c r="H310">
+        <v>20180928</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -12228,8 +12281,8 @@
       <c r="G311" t="s">
         <v>502</v>
       </c>
-      <c r="H311" t="s">
-        <v>7</v>
+      <c r="H311">
+        <v>20180928</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -12306,8 +12359,8 @@
       <c r="G314" t="s">
         <v>511</v>
       </c>
-      <c r="H314" t="s">
-        <v>7</v>
+      <c r="H314">
+        <v>20180928</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -12384,8 +12437,8 @@
       <c r="G317" t="s">
         <v>520</v>
       </c>
-      <c r="H317" t="s">
-        <v>7</v>
+      <c r="H317">
+        <v>20180928</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -12462,8 +12515,8 @@
       <c r="G320" t="s">
         <v>484</v>
       </c>
-      <c r="H320" t="s">
-        <v>7</v>
+      <c r="H320">
+        <v>20180928</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -12488,8 +12541,8 @@
       <c r="G321" t="s">
         <v>484</v>
       </c>
-      <c r="H321" t="s">
-        <v>7</v>
+      <c r="H321">
+        <v>20180928</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -15019,10 +15072,10 @@
         <v>767</v>
       </c>
       <c r="B419" t="s">
-        <v>9</v>
+        <v>768</v>
       </c>
       <c r="C419" t="s">
-        <v>10</v>
+        <v>769</v>
       </c>
       <c r="D419" t="s">
         <v>11</v>
@@ -15031,10 +15084,10 @@
         <v>7</v>
       </c>
       <c r="F419" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G419" t="s">
-        <v>769</v>
+        <v>7</v>
       </c>
       <c r="H419" t="s">
         <v>7</v>
@@ -15045,10 +15098,10 @@
         <v>767</v>
       </c>
       <c r="B420" t="s">
-        <v>9</v>
+        <v>768</v>
       </c>
       <c r="C420" t="s">
-        <v>17</v>
+        <v>771</v>
       </c>
       <c r="D420" t="s">
         <v>11</v>
@@ -15057,10 +15110,10 @@
         <v>7</v>
       </c>
       <c r="F420" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G420" t="s">
-        <v>771</v>
+        <v>7</v>
       </c>
       <c r="H420" t="s">
         <v>7</v>
@@ -15071,10 +15124,10 @@
         <v>767</v>
       </c>
       <c r="B421" t="s">
-        <v>9</v>
+        <v>768</v>
       </c>
       <c r="C421" t="s">
-        <v>20</v>
+        <v>773</v>
       </c>
       <c r="D421" t="s">
         <v>11</v>
@@ -15086,7 +15139,7 @@
         <v>763</v>
       </c>
       <c r="G421" t="s">
-        <v>764</v>
+        <v>7</v>
       </c>
       <c r="H421" t="s">
         <v>7</v>
@@ -15097,10 +15150,10 @@
         <v>767</v>
       </c>
       <c r="B422" t="s">
-        <v>9</v>
+        <v>768</v>
       </c>
       <c r="C422" t="s">
-        <v>23</v>
+        <v>774</v>
       </c>
       <c r="D422" t="s">
         <v>11</v>
@@ -15109,10 +15162,10 @@
         <v>7</v>
       </c>
       <c r="F422" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G422" t="s">
-        <v>773</v>
+        <v>7</v>
       </c>
       <c r="H422" t="s">
         <v>7</v>
@@ -15123,10 +15176,10 @@
         <v>767</v>
       </c>
       <c r="B423" t="s">
-        <v>9</v>
+        <v>768</v>
       </c>
       <c r="C423" t="s">
-        <v>26</v>
+        <v>776</v>
       </c>
       <c r="D423" t="s">
         <v>11</v>
@@ -15135,10 +15188,10 @@
         <v>7</v>
       </c>
       <c r="F423" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="G423" t="s">
-        <v>775</v>
+        <v>7</v>
       </c>
       <c r="H423" t="s">
         <v>7</v>
@@ -15149,10 +15202,10 @@
         <v>767</v>
       </c>
       <c r="B424" t="s">
-        <v>9</v>
+        <v>768</v>
       </c>
       <c r="C424" t="s">
-        <v>27</v>
+        <v>778</v>
       </c>
       <c r="D424" t="s">
         <v>11</v>
@@ -15161,10 +15214,10 @@
         <v>7</v>
       </c>
       <c r="F424" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="G424" t="s">
-        <v>777</v>
+        <v>7</v>
       </c>
       <c r="H424" t="s">
         <v>7</v>
@@ -15175,10 +15228,10 @@
         <v>767</v>
       </c>
       <c r="B425" t="s">
-        <v>9</v>
+        <v>768</v>
       </c>
       <c r="C425" t="s">
-        <v>30</v>
+        <v>780</v>
       </c>
       <c r="D425" t="s">
         <v>11</v>
@@ -15187,10 +15240,10 @@
         <v>7</v>
       </c>
       <c r="F425" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="G425" t="s">
-        <v>559</v>
+        <v>7</v>
       </c>
       <c r="H425" t="s">
         <v>7</v>
@@ -15201,10 +15254,10 @@
         <v>767</v>
       </c>
       <c r="B426" t="s">
-        <v>9</v>
+        <v>768</v>
       </c>
       <c r="C426" t="s">
-        <v>136</v>
+        <v>782</v>
       </c>
       <c r="D426" t="s">
         <v>11</v>
@@ -15213,10 +15266,10 @@
         <v>7</v>
       </c>
       <c r="F426" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="G426" t="s">
-        <v>780</v>
+        <v>7</v>
       </c>
       <c r="H426" t="s">
         <v>7</v>
@@ -15224,13 +15277,13 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B427" t="s">
-        <v>9</v>
+        <v>785</v>
       </c>
       <c r="C427" t="s">
-        <v>10</v>
+        <v>786</v>
       </c>
       <c r="D427" t="s">
         <v>11</v>
@@ -15239,10 +15292,10 @@
         <v>7</v>
       </c>
       <c r="F427" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="G427" t="s">
-        <v>783</v>
+        <v>7</v>
       </c>
       <c r="H427" t="s">
         <v>7</v>
@@ -15250,13 +15303,13 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B428" t="s">
-        <v>9</v>
+        <v>785</v>
       </c>
       <c r="C428" t="s">
-        <v>17</v>
+        <v>787</v>
       </c>
       <c r="D428" t="s">
         <v>11</v>
@@ -15265,10 +15318,10 @@
         <v>7</v>
       </c>
       <c r="F428" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="G428" t="s">
-        <v>785</v>
+        <v>7</v>
       </c>
       <c r="H428" t="s">
         <v>7</v>
@@ -15276,13 +15329,13 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B429" t="s">
-        <v>9</v>
+        <v>785</v>
       </c>
       <c r="C429" t="s">
-        <v>20</v>
+        <v>788</v>
       </c>
       <c r="D429" t="s">
         <v>11</v>
@@ -15291,10 +15344,10 @@
         <v>7</v>
       </c>
       <c r="F429" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
       <c r="G429" t="s">
-        <v>787</v>
+        <v>7</v>
       </c>
       <c r="H429" t="s">
         <v>7</v>
@@ -15302,13 +15355,13 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B430" t="s">
-        <v>9</v>
+        <v>785</v>
       </c>
       <c r="C430" t="s">
-        <v>23</v>
+        <v>789</v>
       </c>
       <c r="D430" t="s">
         <v>11</v>
@@ -15317,10 +15370,10 @@
         <v>7</v>
       </c>
       <c r="F430" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="G430" t="s">
-        <v>789</v>
+        <v>7</v>
       </c>
       <c r="H430" t="s">
         <v>7</v>
@@ -15328,13 +15381,13 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B431" t="s">
-        <v>9</v>
+        <v>785</v>
       </c>
       <c r="C431" t="s">
-        <v>26</v>
+        <v>790</v>
       </c>
       <c r="D431" t="s">
         <v>11</v>
@@ -15343,10 +15396,10 @@
         <v>7</v>
       </c>
       <c r="F431" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="G431" t="s">
-        <v>783</v>
+        <v>7</v>
       </c>
       <c r="H431" t="s">
         <v>7</v>
@@ -15354,13 +15407,13 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B432" t="s">
-        <v>9</v>
+        <v>785</v>
       </c>
       <c r="C432" t="s">
-        <v>27</v>
+        <v>791</v>
       </c>
       <c r="D432" t="s">
         <v>11</v>
@@ -15369,10 +15422,10 @@
         <v>7</v>
       </c>
       <c r="F432" t="s">
-        <v>383</v>
+        <v>779</v>
       </c>
       <c r="G432" t="s">
-        <v>725</v>
+        <v>7</v>
       </c>
       <c r="H432" t="s">
         <v>7</v>
@@ -15380,25 +15433,25 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" t="s">
+        <v>784</v>
+      </c>
+      <c r="B433" t="s">
+        <v>785</v>
+      </c>
+      <c r="C433" t="s">
+        <v>792</v>
+      </c>
+      <c r="D433" t="s">
+        <v>11</v>
+      </c>
+      <c r="E433" t="s">
+        <v>7</v>
+      </c>
+      <c r="F433" t="s">
         <v>781</v>
       </c>
-      <c r="B433" t="s">
-        <v>9</v>
-      </c>
-      <c r="C433" t="s">
-        <v>30</v>
-      </c>
-      <c r="D433" t="s">
-        <v>11</v>
-      </c>
-      <c r="E433" t="s">
-        <v>7</v>
-      </c>
-      <c r="F433" t="s">
-        <v>383</v>
-      </c>
       <c r="G433" t="s">
-        <v>725</v>
+        <v>7</v>
       </c>
       <c r="H433" t="s">
         <v>7</v>
@@ -15406,13 +15459,13 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B434" t="s">
-        <v>9</v>
+        <v>785</v>
       </c>
       <c r="C434" t="s">
-        <v>136</v>
+        <v>793</v>
       </c>
       <c r="D434" t="s">
         <v>11</v>
@@ -15421,10 +15474,10 @@
         <v>7</v>
       </c>
       <c r="F434" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G434" t="s">
-        <v>792</v>
+        <v>7</v>
       </c>
       <c r="H434" t="s">
         <v>7</v>
@@ -15432,13 +15485,13 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="B435" t="s">
         <v>9</v>
       </c>
       <c r="C435" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="D435" t="s">
         <v>11</v>
@@ -15447,10 +15500,10 @@
         <v>7</v>
       </c>
       <c r="F435" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="G435" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H435" t="s">
         <v>7</v>
@@ -15458,13 +15511,13 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="B436" t="s">
         <v>9</v>
       </c>
       <c r="C436" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="D436" t="s">
         <v>11</v>
@@ -15473,10 +15526,10 @@
         <v>7</v>
       </c>
       <c r="F436" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="G436" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="H436" t="s">
         <v>7</v>
@@ -15484,13 +15537,13 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="B437" t="s">
         <v>9</v>
       </c>
       <c r="C437" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D437" t="s">
         <v>11</v>
@@ -15499,10 +15552,10 @@
         <v>7</v>
       </c>
       <c r="F437" t="s">
-        <v>796</v>
+        <v>763</v>
       </c>
       <c r="G437" t="s">
-        <v>797</v>
+        <v>764</v>
       </c>
       <c r="H437" t="s">
         <v>7</v>
@@ -15510,13 +15563,13 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="B438" t="s">
         <v>9</v>
       </c>
       <c r="C438" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="D438" t="s">
         <v>11</v>
@@ -15525,10 +15578,10 @@
         <v>7</v>
       </c>
       <c r="F438" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="G438" t="s">
-        <v>559</v>
+        <v>797</v>
       </c>
       <c r="H438" t="s">
         <v>7</v>
@@ -15536,13 +15589,13 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="B439" t="s">
         <v>9</v>
       </c>
       <c r="C439" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="D439" t="s">
         <v>11</v>
@@ -15551,10 +15604,10 @@
         <v>7</v>
       </c>
       <c r="F439" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="G439" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H439" t="s">
         <v>7</v>
@@ -15562,13 +15615,13 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="B440" t="s">
         <v>9</v>
       </c>
       <c r="C440" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="D440" t="s">
         <v>11</v>
@@ -15577,10 +15630,10 @@
         <v>7</v>
       </c>
       <c r="F440" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="G440" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H440" t="s">
         <v>7</v>
@@ -15588,25 +15641,25 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" t="s">
+        <v>794</v>
+      </c>
+      <c r="B441" t="s">
+        <v>9</v>
+      </c>
+      <c r="C441" t="s">
+        <v>30</v>
+      </c>
+      <c r="D441" t="s">
+        <v>11</v>
+      </c>
+      <c r="E441" t="s">
+        <v>7</v>
+      </c>
+      <c r="F441" t="s">
         <v>781</v>
       </c>
-      <c r="B441" t="s">
-        <v>9</v>
-      </c>
-      <c r="C441" t="s">
-        <v>156</v>
-      </c>
-      <c r="D441" t="s">
-        <v>11</v>
-      </c>
-      <c r="E441" t="s">
-        <v>7</v>
-      </c>
-      <c r="F441" t="s">
-        <v>788</v>
-      </c>
       <c r="G441" t="s">
-        <v>789</v>
+        <v>559</v>
       </c>
       <c r="H441" t="s">
         <v>7</v>
@@ -15614,13 +15667,13 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="B442" t="s">
         <v>9</v>
       </c>
       <c r="C442" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D442" t="s">
         <v>11</v>
@@ -15629,10 +15682,10 @@
         <v>7</v>
       </c>
       <c r="F442" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="G442" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="H442" t="s">
         <v>7</v>
@@ -15640,13 +15693,13 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="B443" t="s">
         <v>9</v>
       </c>
       <c r="C443" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="D443" t="s">
         <v>11</v>
@@ -15655,10 +15708,10 @@
         <v>7</v>
       </c>
       <c r="F443" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G443" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H443" t="s">
         <v>7</v>
@@ -15666,13 +15719,13 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="B444" t="s">
         <v>9</v>
       </c>
       <c r="C444" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="D444" t="s">
         <v>11</v>
@@ -15681,10 +15734,10 @@
         <v>7</v>
       </c>
       <c r="F444" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G444" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H444" t="s">
         <v>7</v>
@@ -15692,13 +15745,13 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="B445" t="s">
         <v>9</v>
       </c>
       <c r="C445" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="D445" t="s">
         <v>11</v>
@@ -15707,10 +15760,10 @@
         <v>7</v>
       </c>
       <c r="F445" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G445" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="H445" t="s">
         <v>7</v>
@@ -15718,13 +15771,13 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="B446" t="s">
         <v>9</v>
       </c>
       <c r="C446" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="D446" t="s">
         <v>11</v>
@@ -15733,10 +15786,10 @@
         <v>7</v>
       </c>
       <c r="F446" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G446" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H446" t="s">
         <v>7</v>
@@ -15744,13 +15797,13 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="B447" t="s">
         <v>9</v>
       </c>
       <c r="C447" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D447" t="s">
         <v>11</v>
@@ -15759,10 +15812,10 @@
         <v>7</v>
       </c>
       <c r="F447" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G447" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="H447" t="s">
         <v>7</v>
@@ -15770,13 +15823,13 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="B448" t="s">
         <v>9</v>
       </c>
       <c r="C448" t="s">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="D448" t="s">
         <v>11</v>
@@ -15785,10 +15838,10 @@
         <v>7</v>
       </c>
       <c r="F448" t="s">
-        <v>815</v>
+        <v>383</v>
       </c>
       <c r="G448" t="s">
-        <v>812</v>
+        <v>725</v>
       </c>
       <c r="H448" t="s">
         <v>7</v>
@@ -15796,13 +15849,13 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="B449" t="s">
-        <v>817</v>
+        <v>9</v>
       </c>
       <c r="C449" t="s">
-        <v>818</v>
+        <v>30</v>
       </c>
       <c r="D449" t="s">
         <v>11</v>
@@ -15822,13 +15875,13 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="B450" t="s">
-        <v>817</v>
+        <v>9</v>
       </c>
       <c r="C450" t="s">
-        <v>819</v>
+        <v>136</v>
       </c>
       <c r="D450" t="s">
         <v>11</v>
@@ -15837,10 +15890,10 @@
         <v>7</v>
       </c>
       <c r="F450" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="G450" t="s">
-        <v>66</v>
+        <v>812</v>
       </c>
       <c r="H450" t="s">
         <v>7</v>
@@ -15848,13 +15901,13 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="B451" t="s">
-        <v>817</v>
+        <v>9</v>
       </c>
       <c r="C451" t="s">
-        <v>821</v>
+        <v>139</v>
       </c>
       <c r="D451" t="s">
         <v>11</v>
@@ -15863,10 +15916,10 @@
         <v>7</v>
       </c>
       <c r="F451" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="G451" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="H451" t="s">
         <v>7</v>
@@ -15874,13 +15927,13 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="B452" t="s">
-        <v>817</v>
+        <v>9</v>
       </c>
       <c r="C452" t="s">
-        <v>824</v>
+        <v>142</v>
       </c>
       <c r="D452" t="s">
         <v>11</v>
@@ -15889,10 +15942,10 @@
         <v>7</v>
       </c>
       <c r="F452" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="G452" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="H452" t="s">
         <v>7</v>
@@ -15900,13 +15953,13 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="B453" t="s">
         <v>9</v>
       </c>
       <c r="C453" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="D453" t="s">
         <v>11</v>
@@ -15915,10 +15968,10 @@
         <v>7</v>
       </c>
       <c r="F453" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="G453" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="H453" t="s">
         <v>7</v>
@@ -15926,13 +15979,13 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="B454" t="s">
         <v>9</v>
       </c>
       <c r="C454" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="D454" t="s">
         <v>11</v>
@@ -15941,10 +15994,10 @@
         <v>7</v>
       </c>
       <c r="F454" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="G454" t="s">
-        <v>831</v>
+        <v>559</v>
       </c>
       <c r="H454" t="s">
         <v>7</v>
@@ -15952,13 +16005,13 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="B455" t="s">
         <v>9</v>
       </c>
       <c r="C455" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="D455" t="s">
         <v>11</v>
@@ -15967,10 +16020,10 @@
         <v>7</v>
       </c>
       <c r="F455" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="G455" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="H455" t="s">
         <v>7</v>
@@ -15978,13 +16031,13 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="B456" t="s">
         <v>9</v>
       </c>
       <c r="C456" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="D456" t="s">
         <v>11</v>
@@ -15993,10 +16046,10 @@
         <v>7</v>
       </c>
       <c r="F456" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="G456" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="H456" t="s">
         <v>7</v>
@@ -16004,13 +16057,13 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="B457" t="s">
         <v>9</v>
       </c>
       <c r="C457" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="D457" t="s">
         <v>11</v>
@@ -16019,10 +16072,10 @@
         <v>7</v>
       </c>
       <c r="F457" t="s">
-        <v>836</v>
+        <v>808</v>
       </c>
       <c r="G457" t="s">
-        <v>837</v>
+        <v>809</v>
       </c>
       <c r="H457" t="s">
         <v>7</v>
@@ -16030,13 +16083,13 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="B458" t="s">
         <v>9</v>
       </c>
       <c r="C458" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="D458" t="s">
         <v>11</v>
@@ -16045,10 +16098,10 @@
         <v>7</v>
       </c>
       <c r="F458" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="G458" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="H458" t="s">
         <v>7</v>
@@ -16056,13 +16109,13 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" t="s">
-        <v>840</v>
+        <v>801</v>
       </c>
       <c r="B459" t="s">
         <v>9</v>
       </c>
       <c r="C459" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="D459" t="s">
         <v>11</v>
@@ -16071,10 +16124,10 @@
         <v>7</v>
       </c>
       <c r="F459" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="G459" t="s">
-        <v>746</v>
+        <v>826</v>
       </c>
       <c r="H459" t="s">
         <v>7</v>
@@ -16082,13 +16135,13 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" t="s">
-        <v>840</v>
+        <v>801</v>
       </c>
       <c r="B460" t="s">
         <v>9</v>
       </c>
       <c r="C460" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="D460" t="s">
         <v>11</v>
@@ -16097,10 +16150,10 @@
         <v>7</v>
       </c>
       <c r="F460" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="G460" t="s">
-        <v>370</v>
+        <v>828</v>
       </c>
       <c r="H460" t="s">
         <v>7</v>
@@ -16108,13 +16161,13 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" t="s">
-        <v>840</v>
+        <v>801</v>
       </c>
       <c r="B461" t="s">
         <v>9</v>
       </c>
       <c r="C461" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="D461" t="s">
         <v>11</v>
@@ -16123,10 +16176,10 @@
         <v>7</v>
       </c>
       <c r="F461" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="G461" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="H461" t="s">
         <v>7</v>
@@ -16134,13 +16187,13 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" t="s">
-        <v>840</v>
+        <v>801</v>
       </c>
       <c r="B462" t="s">
         <v>9</v>
       </c>
       <c r="C462" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="D462" t="s">
         <v>11</v>
@@ -16149,10 +16202,10 @@
         <v>7</v>
       </c>
       <c r="F462" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="G462" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="H462" t="s">
         <v>7</v>
@@ -16160,13 +16213,13 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" t="s">
-        <v>840</v>
+        <v>801</v>
       </c>
       <c r="B463" t="s">
         <v>9</v>
       </c>
       <c r="C463" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="D463" t="s">
         <v>11</v>
@@ -16175,10 +16228,10 @@
         <v>7</v>
       </c>
       <c r="F463" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="G463" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="H463" t="s">
         <v>7</v>
@@ -16186,13 +16239,13 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" t="s">
-        <v>840</v>
+        <v>801</v>
       </c>
       <c r="B464" t="s">
         <v>9</v>
       </c>
       <c r="C464" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="D464" t="s">
         <v>11</v>
@@ -16201,10 +16254,10 @@
         <v>7</v>
       </c>
       <c r="F464" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="G464" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="H464" t="s">
         <v>7</v>
@@ -16212,13 +16265,13 @@
     </row>
     <row r="465" spans="1:8">
       <c r="A465" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B465" t="s">
-        <v>9</v>
+        <v>837</v>
       </c>
       <c r="C465" t="s">
-        <v>30</v>
+        <v>838</v>
       </c>
       <c r="D465" t="s">
         <v>11</v>
@@ -16227,10 +16280,10 @@
         <v>7</v>
       </c>
       <c r="F465" t="s">
-        <v>849</v>
+        <v>383</v>
       </c>
       <c r="G465" t="s">
-        <v>839</v>
+        <v>725</v>
       </c>
       <c r="H465" t="s">
         <v>7</v>
@@ -16238,25 +16291,25 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" t="s">
+        <v>836</v>
+      </c>
+      <c r="B466" t="s">
+        <v>837</v>
+      </c>
+      <c r="C466" t="s">
+        <v>839</v>
+      </c>
+      <c r="D466" t="s">
+        <v>11</v>
+      </c>
+      <c r="E466" t="s">
+        <v>7</v>
+      </c>
+      <c r="F466" t="s">
         <v>840</v>
       </c>
-      <c r="B466" t="s">
-        <v>9</v>
-      </c>
-      <c r="C466" t="s">
-        <v>136</v>
-      </c>
-      <c r="D466" t="s">
-        <v>11</v>
-      </c>
-      <c r="E466" t="s">
-        <v>7</v>
-      </c>
-      <c r="F466" t="s">
-        <v>850</v>
-      </c>
       <c r="G466" t="s">
-        <v>851</v>
+        <v>66</v>
       </c>
       <c r="H466" t="s">
         <v>7</v>
@@ -16264,13 +16317,13 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B467" t="s">
-        <v>9</v>
+        <v>837</v>
       </c>
       <c r="C467" t="s">
-        <v>139</v>
+        <v>841</v>
       </c>
       <c r="D467" t="s">
         <v>11</v>
@@ -16279,10 +16332,10 @@
         <v>7</v>
       </c>
       <c r="F467" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="G467" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="H467" t="s">
         <v>7</v>
@@ -16290,13 +16343,13 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B468" t="s">
-        <v>9</v>
+        <v>837</v>
       </c>
       <c r="C468" t="s">
-        <v>142</v>
+        <v>844</v>
       </c>
       <c r="D468" t="s">
         <v>11</v>
@@ -16305,10 +16358,10 @@
         <v>7</v>
       </c>
       <c r="F468" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="G468" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="H468" t="s">
         <v>7</v>
@@ -16316,13 +16369,13 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="B469" t="s">
         <v>9</v>
       </c>
       <c r="C469" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="D469" t="s">
         <v>11</v>
@@ -16331,10 +16384,10 @@
         <v>7</v>
       </c>
       <c r="F469" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="G469" t="s">
-        <v>613</v>
+        <v>849</v>
       </c>
       <c r="H469" t="s">
         <v>7</v>
@@ -16342,13 +16395,13 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="B470" t="s">
         <v>9</v>
       </c>
       <c r="C470" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="D470" t="s">
         <v>11</v>
@@ -16357,10 +16410,10 @@
         <v>7</v>
       </c>
       <c r="F470" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="G470" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="H470" t="s">
         <v>7</v>
@@ -16368,13 +16421,13 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B471" t="s">
-        <v>860</v>
+        <v>9</v>
       </c>
       <c r="C471" t="s">
-        <v>861</v>
+        <v>20</v>
       </c>
       <c r="D471" t="s">
         <v>11</v>
@@ -16383,10 +16436,10 @@
         <v>7</v>
       </c>
       <c r="F471" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="G471" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="H471" t="s">
         <v>7</v>
@@ -16394,13 +16447,13 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B472" t="s">
-        <v>860</v>
+        <v>9</v>
       </c>
       <c r="C472" t="s">
-        <v>864</v>
+        <v>23</v>
       </c>
       <c r="D472" t="s">
         <v>11</v>
@@ -16409,10 +16462,10 @@
         <v>7</v>
       </c>
       <c r="F472" t="s">
-        <v>34</v>
+        <v>854</v>
       </c>
       <c r="G472" t="s">
-        <v>35</v>
+        <v>855</v>
       </c>
       <c r="H472" t="s">
         <v>7</v>
@@ -16420,13 +16473,13 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B473" t="s">
-        <v>860</v>
+        <v>9</v>
       </c>
       <c r="C473" t="s">
-        <v>865</v>
+        <v>26</v>
       </c>
       <c r="D473" t="s">
         <v>11</v>
@@ -16435,10 +16488,10 @@
         <v>7</v>
       </c>
       <c r="F473" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="G473" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="H473" t="s">
         <v>7</v>
@@ -16446,25 +16499,25 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" t="s">
+        <v>847</v>
+      </c>
+      <c r="B474" t="s">
+        <v>9</v>
+      </c>
+      <c r="C474" t="s">
+        <v>27</v>
+      </c>
+      <c r="D474" t="s">
+        <v>11</v>
+      </c>
+      <c r="E474" t="s">
+        <v>7</v>
+      </c>
+      <c r="F474" t="s">
+        <v>858</v>
+      </c>
+      <c r="G474" t="s">
         <v>859</v>
-      </c>
-      <c r="B474" t="s">
-        <v>860</v>
-      </c>
-      <c r="C474" t="s">
-        <v>868</v>
-      </c>
-      <c r="D474" t="s">
-        <v>11</v>
-      </c>
-      <c r="E474" t="s">
-        <v>7</v>
-      </c>
-      <c r="F474" t="s">
-        <v>869</v>
-      </c>
-      <c r="G474" t="s">
-        <v>870</v>
       </c>
       <c r="H474" t="s">
         <v>7</v>
@@ -16472,13 +16525,13 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B475" t="s">
-        <v>860</v>
+        <v>9</v>
       </c>
       <c r="C475" t="s">
-        <v>871</v>
+        <v>10</v>
       </c>
       <c r="D475" t="s">
         <v>11</v>
@@ -16487,10 +16540,10 @@
         <v>7</v>
       </c>
       <c r="F475" t="s">
-        <v>830</v>
+        <v>861</v>
       </c>
       <c r="G475" t="s">
-        <v>831</v>
+        <v>746</v>
       </c>
       <c r="H475" t="s">
         <v>7</v>
@@ -16498,13 +16551,13 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B476" t="s">
-        <v>860</v>
+        <v>9</v>
       </c>
       <c r="C476" t="s">
-        <v>872</v>
+        <v>17</v>
       </c>
       <c r="D476" t="s">
         <v>11</v>
@@ -16513,10 +16566,10 @@
         <v>7</v>
       </c>
       <c r="F476" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="G476" t="s">
-        <v>874</v>
+        <v>370</v>
       </c>
       <c r="H476" t="s">
         <v>7</v>
@@ -16524,13 +16577,13 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B477" t="s">
-        <v>860</v>
+        <v>9</v>
       </c>
       <c r="C477" t="s">
-        <v>875</v>
+        <v>20</v>
       </c>
       <c r="D477" t="s">
         <v>11</v>
@@ -16539,10 +16592,10 @@
         <v>7</v>
       </c>
       <c r="F477" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="G477" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="H477" t="s">
         <v>7</v>
@@ -16550,13 +16603,13 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="B478" t="s">
-        <v>879</v>
+        <v>9</v>
       </c>
       <c r="C478" t="s">
-        <v>880</v>
+        <v>23</v>
       </c>
       <c r="D478" t="s">
         <v>11</v>
@@ -16565,10 +16618,10 @@
         <v>7</v>
       </c>
       <c r="F478" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="G478" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="H478" t="s">
         <v>7</v>
@@ -16576,13 +16629,13 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="B479" t="s">
-        <v>879</v>
+        <v>9</v>
       </c>
       <c r="C479" t="s">
-        <v>881</v>
+        <v>26</v>
       </c>
       <c r="D479" t="s">
         <v>11</v>
@@ -16591,10 +16644,10 @@
         <v>7</v>
       </c>
       <c r="F479" t="s">
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="G479" t="s">
-        <v>877</v>
+        <v>851</v>
       </c>
       <c r="H479" t="s">
         <v>7</v>
@@ -16602,13 +16655,13 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="B480" t="s">
-        <v>883</v>
+        <v>9</v>
       </c>
       <c r="C480" t="s">
-        <v>884</v>
+        <v>27</v>
       </c>
       <c r="D480" t="s">
         <v>11</v>
@@ -16617,10 +16670,10 @@
         <v>7</v>
       </c>
       <c r="F480" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="G480" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="H480" t="s">
         <v>7</v>
@@ -16628,13 +16681,13 @@
     </row>
     <row r="481" spans="1:8">
       <c r="A481" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="B481" t="s">
-        <v>883</v>
+        <v>9</v>
       </c>
       <c r="C481" t="s">
-        <v>887</v>
+        <v>30</v>
       </c>
       <c r="D481" t="s">
         <v>11</v>
@@ -16643,10 +16696,10 @@
         <v>7</v>
       </c>
       <c r="F481" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="G481" t="s">
-        <v>889</v>
+        <v>859</v>
       </c>
       <c r="H481" t="s">
         <v>7</v>
@@ -16654,13 +16707,13 @@
     </row>
     <row r="482" spans="1:8">
       <c r="A482" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="B482" t="s">
-        <v>883</v>
+        <v>9</v>
       </c>
       <c r="C482" t="s">
-        <v>890</v>
+        <v>136</v>
       </c>
       <c r="D482" t="s">
         <v>11</v>
@@ -16669,10 +16722,10 @@
         <v>7</v>
       </c>
       <c r="F482" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="G482" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="H482" t="s">
         <v>7</v>
@@ -16680,13 +16733,13 @@
     </row>
     <row r="483" spans="1:8">
       <c r="A483" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="B483" t="s">
-        <v>883</v>
+        <v>9</v>
       </c>
       <c r="C483" t="s">
-        <v>893</v>
+        <v>139</v>
       </c>
       <c r="D483" t="s">
         <v>11</v>
@@ -16695,10 +16748,10 @@
         <v>7</v>
       </c>
       <c r="F483" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="G483" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
       <c r="H483" t="s">
         <v>7</v>
@@ -16706,13 +16759,13 @@
     </row>
     <row r="484" spans="1:8">
       <c r="A484" t="s">
-        <v>896</v>
+        <v>860</v>
       </c>
       <c r="B484" t="s">
-        <v>897</v>
+        <v>9</v>
       </c>
       <c r="C484" t="s">
-        <v>898</v>
+        <v>142</v>
       </c>
       <c r="D484" t="s">
         <v>11</v>
@@ -16721,10 +16774,10 @@
         <v>7</v>
       </c>
       <c r="F484" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
       <c r="G484" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="H484" t="s">
         <v>7</v>
@@ -16732,13 +16785,13 @@
     </row>
     <row r="485" spans="1:8">
       <c r="A485" t="s">
-        <v>896</v>
+        <v>860</v>
       </c>
       <c r="B485" t="s">
-        <v>897</v>
+        <v>9</v>
       </c>
       <c r="C485" t="s">
-        <v>901</v>
+        <v>145</v>
       </c>
       <c r="D485" t="s">
         <v>11</v>
@@ -16747,10 +16800,10 @@
         <v>7</v>
       </c>
       <c r="F485" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="G485" t="s">
-        <v>903</v>
+        <v>613</v>
       </c>
       <c r="H485" t="s">
         <v>7</v>
@@ -16758,13 +16811,13 @@
     </row>
     <row r="486" spans="1:8">
       <c r="A486" t="s">
-        <v>896</v>
+        <v>860</v>
       </c>
       <c r="B486" t="s">
-        <v>897</v>
+        <v>9</v>
       </c>
       <c r="C486" t="s">
-        <v>904</v>
+        <v>148</v>
       </c>
       <c r="D486" t="s">
         <v>11</v>
@@ -16773,10 +16826,10 @@
         <v>7</v>
       </c>
       <c r="F486" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="G486" t="s">
-        <v>906</v>
+        <v>878</v>
       </c>
       <c r="H486" t="s">
         <v>7</v>
@@ -16784,13 +16837,13 @@
     </row>
     <row r="487" spans="1:8">
       <c r="A487" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="B487" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="C487" t="s">
-        <v>907</v>
+        <v>881</v>
       </c>
       <c r="D487" t="s">
         <v>11</v>
@@ -16799,10 +16852,10 @@
         <v>7</v>
       </c>
       <c r="F487" t="s">
-        <v>908</v>
+        <v>882</v>
       </c>
       <c r="G487" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="H487" t="s">
         <v>7</v>
@@ -16810,13 +16863,13 @@
     </row>
     <row r="488" spans="1:8">
       <c r="A488" t="s">
-        <v>910</v>
+        <v>879</v>
       </c>
       <c r="B488" t="s">
-        <v>911</v>
+        <v>880</v>
       </c>
       <c r="C488" t="s">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="D488" t="s">
         <v>11</v>
@@ -16825,10 +16878,10 @@
         <v>7</v>
       </c>
       <c r="F488" t="s">
-        <v>913</v>
+        <v>34</v>
       </c>
       <c r="G488" t="s">
-        <v>914</v>
+        <v>35</v>
       </c>
       <c r="H488" t="s">
         <v>7</v>
@@ -16836,13 +16889,13 @@
     </row>
     <row r="489" spans="1:8">
       <c r="A489" t="s">
-        <v>910</v>
+        <v>879</v>
       </c>
       <c r="B489" t="s">
-        <v>911</v>
+        <v>880</v>
       </c>
       <c r="C489" t="s">
-        <v>915</v>
+        <v>885</v>
       </c>
       <c r="D489" t="s">
         <v>11</v>
@@ -16851,10 +16904,10 @@
         <v>7</v>
       </c>
       <c r="F489" t="s">
-        <v>916</v>
+        <v>886</v>
       </c>
       <c r="G489" t="s">
-        <v>917</v>
+        <v>887</v>
       </c>
       <c r="H489" t="s">
         <v>7</v>
@@ -16862,13 +16915,13 @@
     </row>
     <row r="490" spans="1:8">
       <c r="A490" t="s">
-        <v>910</v>
+        <v>879</v>
       </c>
       <c r="B490" t="s">
-        <v>911</v>
+        <v>880</v>
       </c>
       <c r="C490" t="s">
-        <v>918</v>
+        <v>888</v>
       </c>
       <c r="D490" t="s">
         <v>11</v>
@@ -16877,10 +16930,10 @@
         <v>7</v>
       </c>
       <c r="F490" t="s">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G490" t="s">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="H490" t="s">
         <v>7</v>
@@ -16888,13 +16941,13 @@
     </row>
     <row r="491" spans="1:8">
       <c r="A491" t="s">
-        <v>910</v>
+        <v>879</v>
       </c>
       <c r="B491" t="s">
-        <v>911</v>
+        <v>880</v>
       </c>
       <c r="C491" t="s">
-        <v>921</v>
+        <v>891</v>
       </c>
       <c r="D491" t="s">
         <v>11</v>
@@ -16903,10 +16956,10 @@
         <v>7</v>
       </c>
       <c r="F491" t="s">
-        <v>922</v>
+        <v>850</v>
       </c>
       <c r="G491" t="s">
-        <v>923</v>
+        <v>851</v>
       </c>
       <c r="H491" t="s">
         <v>7</v>
@@ -16914,13 +16967,13 @@
     </row>
     <row r="492" spans="1:8">
       <c r="A492" t="s">
-        <v>924</v>
+        <v>879</v>
       </c>
       <c r="B492" t="s">
-        <v>925</v>
+        <v>880</v>
       </c>
       <c r="C492" t="s">
-        <v>926</v>
+        <v>892</v>
       </c>
       <c r="D492" t="s">
         <v>11</v>
@@ -16929,10 +16982,10 @@
         <v>7</v>
       </c>
       <c r="F492" t="s">
-        <v>927</v>
+        <v>893</v>
       </c>
       <c r="G492" t="s">
-        <v>928</v>
+        <v>894</v>
       </c>
       <c r="H492" t="s">
         <v>7</v>
@@ -16940,13 +16993,13 @@
     </row>
     <row r="493" spans="1:8">
       <c r="A493" t="s">
-        <v>924</v>
+        <v>879</v>
       </c>
       <c r="B493" t="s">
-        <v>925</v>
+        <v>880</v>
       </c>
       <c r="C493" t="s">
-        <v>929</v>
+        <v>895</v>
       </c>
       <c r="D493" t="s">
         <v>11</v>
@@ -16955,10 +17008,10 @@
         <v>7</v>
       </c>
       <c r="F493" t="s">
-        <v>873</v>
+        <v>896</v>
       </c>
       <c r="G493" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
       <c r="H493" t="s">
         <v>7</v>
@@ -16966,13 +17019,13 @@
     </row>
     <row r="494" spans="1:8">
       <c r="A494" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="B494" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="C494" t="s">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="D494" t="s">
         <v>11</v>
@@ -16981,10 +17034,10 @@
         <v>7</v>
       </c>
       <c r="F494" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
       <c r="G494" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="H494" t="s">
         <v>7</v>
@@ -16992,13 +17045,13 @@
     </row>
     <row r="495" spans="1:8">
       <c r="A495" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="B495" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="C495" t="s">
-        <v>931</v>
+        <v>901</v>
       </c>
       <c r="D495" t="s">
         <v>11</v>
@@ -17007,10 +17060,10 @@
         <v>7</v>
       </c>
       <c r="F495" t="s">
-        <v>932</v>
+        <v>896</v>
       </c>
       <c r="G495" t="s">
-        <v>933</v>
+        <v>897</v>
       </c>
       <c r="H495" t="s">
         <v>7</v>
@@ -17018,13 +17071,13 @@
     </row>
     <row r="496" spans="1:8">
       <c r="A496" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="B496" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="C496" t="s">
-        <v>934</v>
+        <v>904</v>
       </c>
       <c r="D496" t="s">
         <v>11</v>
@@ -17033,10 +17086,10 @@
         <v>7</v>
       </c>
       <c r="F496" t="s">
-        <v>935</v>
+        <v>905</v>
       </c>
       <c r="G496" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
       <c r="H496" t="s">
         <v>7</v>
@@ -17044,13 +17097,13 @@
     </row>
     <row r="497" spans="1:8">
       <c r="A497" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="B497" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="C497" t="s">
-        <v>937</v>
+        <v>907</v>
       </c>
       <c r="D497" t="s">
         <v>11</v>
@@ -17059,10 +17112,10 @@
         <v>7</v>
       </c>
       <c r="F497" t="s">
-        <v>938</v>
+        <v>908</v>
       </c>
       <c r="G497" t="s">
-        <v>939</v>
+        <v>909</v>
       </c>
       <c r="H497" t="s">
         <v>7</v>
@@ -17070,13 +17123,13 @@
     </row>
     <row r="498" spans="1:8">
       <c r="A498" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="B498" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="C498" t="s">
-        <v>940</v>
+        <v>910</v>
       </c>
       <c r="D498" t="s">
         <v>11</v>
@@ -17085,10 +17138,10 @@
         <v>7</v>
       </c>
       <c r="F498" t="s">
-        <v>801</v>
+        <v>911</v>
       </c>
       <c r="G498" t="s">
-        <v>802</v>
+        <v>912</v>
       </c>
       <c r="H498" t="s">
         <v>7</v>
@@ -17096,13 +17149,13 @@
     </row>
     <row r="499" spans="1:8">
       <c r="A499" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="B499" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="C499" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
       <c r="D499" t="s">
         <v>11</v>
@@ -17111,10 +17164,10 @@
         <v>7</v>
       </c>
       <c r="F499" t="s">
-        <v>942</v>
+        <v>914</v>
       </c>
       <c r="G499" t="s">
-        <v>943</v>
+        <v>915</v>
       </c>
       <c r="H499" t="s">
         <v>7</v>
@@ -17122,13 +17175,13 @@
     </row>
     <row r="500" spans="1:8">
       <c r="A500" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="B500" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="C500" t="s">
-        <v>944</v>
+        <v>918</v>
       </c>
       <c r="D500" t="s">
         <v>11</v>
@@ -17137,10 +17190,10 @@
         <v>7</v>
       </c>
       <c r="F500" t="s">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="G500" t="s">
-        <v>946</v>
+        <v>920</v>
       </c>
       <c r="H500" t="s">
         <v>7</v>
@@ -17148,13 +17201,13 @@
     </row>
     <row r="501" spans="1:8">
       <c r="A501" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="B501" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="C501" t="s">
-        <v>947</v>
+        <v>921</v>
       </c>
       <c r="D501" t="s">
         <v>11</v>
@@ -17163,10 +17216,10 @@
         <v>7</v>
       </c>
       <c r="F501" t="s">
-        <v>948</v>
+        <v>922</v>
       </c>
       <c r="G501" t="s">
-        <v>949</v>
+        <v>923</v>
       </c>
       <c r="H501" t="s">
         <v>7</v>
@@ -17174,25 +17227,25 @@
     </row>
     <row r="502" spans="1:8">
       <c r="A502" t="s">
+        <v>916</v>
+      </c>
+      <c r="B502" t="s">
+        <v>917</v>
+      </c>
+      <c r="C502" t="s">
         <v>924</v>
       </c>
-      <c r="B502" t="s">
+      <c r="D502" t="s">
+        <v>11</v>
+      </c>
+      <c r="E502" t="s">
+        <v>7</v>
+      </c>
+      <c r="F502" t="s">
         <v>925</v>
       </c>
-      <c r="C502" t="s">
-        <v>950</v>
-      </c>
-      <c r="D502" t="s">
-        <v>11</v>
-      </c>
-      <c r="E502" t="s">
-        <v>7</v>
-      </c>
-      <c r="F502" t="s">
-        <v>951</v>
-      </c>
       <c r="G502" t="s">
-        <v>952</v>
+        <v>926</v>
       </c>
       <c r="H502" t="s">
         <v>7</v>
@@ -17200,13 +17253,13 @@
     </row>
     <row r="503" spans="1:8">
       <c r="A503" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="B503" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="C503" t="s">
-        <v>953</v>
+        <v>927</v>
       </c>
       <c r="D503" t="s">
         <v>11</v>
@@ -17215,10 +17268,10 @@
         <v>7</v>
       </c>
       <c r="F503" t="s">
-        <v>954</v>
+        <v>928</v>
       </c>
       <c r="G503" t="s">
-        <v>955</v>
+        <v>929</v>
       </c>
       <c r="H503" t="s">
         <v>7</v>
@@ -17226,13 +17279,13 @@
     </row>
     <row r="504" spans="1:8">
       <c r="A504" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="B504" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="C504" t="s">
-        <v>956</v>
+        <v>932</v>
       </c>
       <c r="D504" t="s">
         <v>11</v>
@@ -17241,10 +17294,10 @@
         <v>7</v>
       </c>
       <c r="F504" t="s">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="G504" t="s">
-        <v>958</v>
+        <v>934</v>
       </c>
       <c r="H504" t="s">
         <v>7</v>
@@ -17252,13 +17305,13 @@
     </row>
     <row r="505" spans="1:8">
       <c r="A505" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="B505" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="C505" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
       <c r="D505" t="s">
         <v>11</v>
@@ -17267,10 +17320,10 @@
         <v>7</v>
       </c>
       <c r="F505" t="s">
-        <v>960</v>
+        <v>936</v>
       </c>
       <c r="G505" t="s">
-        <v>961</v>
+        <v>937</v>
       </c>
       <c r="H505" t="s">
         <v>7</v>
@@ -17278,13 +17331,13 @@
     </row>
     <row r="506" spans="1:8">
       <c r="A506" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="B506" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="C506" t="s">
-        <v>962</v>
+        <v>938</v>
       </c>
       <c r="D506" t="s">
         <v>11</v>
@@ -17293,10 +17346,10 @@
         <v>7</v>
       </c>
       <c r="F506" t="s">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="G506" t="s">
-        <v>964</v>
+        <v>940</v>
       </c>
       <c r="H506" t="s">
         <v>7</v>
@@ -17304,13 +17357,13 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="B507" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="C507" t="s">
-        <v>965</v>
+        <v>941</v>
       </c>
       <c r="D507" t="s">
         <v>11</v>
@@ -17319,10 +17372,10 @@
         <v>7</v>
       </c>
       <c r="F507" t="s">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="G507" t="s">
-        <v>967</v>
+        <v>943</v>
       </c>
       <c r="H507" t="s">
         <v>7</v>
@@ -17330,13 +17383,13 @@
     </row>
     <row r="508" spans="1:8">
       <c r="A508" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="B508" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="C508" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="D508" t="s">
         <v>11</v>
@@ -17345,10 +17398,10 @@
         <v>7</v>
       </c>
       <c r="F508" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="G508" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="H508" t="s">
         <v>7</v>
@@ -17356,13 +17409,13 @@
     </row>
     <row r="509" spans="1:8">
       <c r="A509" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="B509" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="C509" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="D509" t="s">
         <v>11</v>
@@ -17371,10 +17424,10 @@
         <v>7</v>
       </c>
       <c r="F509" t="s">
-        <v>972</v>
+        <v>893</v>
       </c>
       <c r="G509" t="s">
-        <v>973</v>
+        <v>894</v>
       </c>
       <c r="H509" t="s">
         <v>7</v>
@@ -17382,13 +17435,13 @@
     </row>
     <row r="510" spans="1:8">
       <c r="A510" t="s">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="B510" t="s">
-        <v>975</v>
+        <v>945</v>
       </c>
       <c r="C510" t="s">
-        <v>976</v>
+        <v>950</v>
       </c>
       <c r="D510" t="s">
         <v>11</v>
@@ -17397,10 +17450,10 @@
         <v>7</v>
       </c>
       <c r="F510" t="s">
-        <v>977</v>
+        <v>896</v>
       </c>
       <c r="G510" t="s">
-        <v>978</v>
+        <v>897</v>
       </c>
       <c r="H510" t="s">
         <v>7</v>
@@ -17408,13 +17461,13 @@
     </row>
     <row r="511" spans="1:8">
       <c r="A511" t="s">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="B511" t="s">
-        <v>975</v>
+        <v>945</v>
       </c>
       <c r="C511" t="s">
-        <v>979</v>
+        <v>951</v>
       </c>
       <c r="D511" t="s">
         <v>11</v>
@@ -17423,10 +17476,10 @@
         <v>7</v>
       </c>
       <c r="F511" t="s">
-        <v>980</v>
+        <v>952</v>
       </c>
       <c r="G511" t="s">
-        <v>981</v>
+        <v>953</v>
       </c>
       <c r="H511" t="s">
         <v>7</v>
@@ -17434,13 +17487,13 @@
     </row>
     <row r="512" spans="1:8">
       <c r="A512" t="s">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="B512" t="s">
-        <v>975</v>
+        <v>945</v>
       </c>
       <c r="C512" t="s">
-        <v>982</v>
+        <v>954</v>
       </c>
       <c r="D512" t="s">
         <v>11</v>
@@ -17449,10 +17502,10 @@
         <v>7</v>
       </c>
       <c r="F512" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
       <c r="G512" t="s">
-        <v>984</v>
+        <v>956</v>
       </c>
       <c r="H512" t="s">
         <v>7</v>
@@ -17460,13 +17513,13 @@
     </row>
     <row r="513" spans="1:8">
       <c r="A513" t="s">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="B513" t="s">
-        <v>975</v>
+        <v>945</v>
       </c>
       <c r="C513" t="s">
-        <v>985</v>
+        <v>957</v>
       </c>
       <c r="D513" t="s">
         <v>11</v>
@@ -17475,10 +17528,10 @@
         <v>7</v>
       </c>
       <c r="F513" t="s">
-        <v>986</v>
+        <v>958</v>
       </c>
       <c r="G513" t="s">
-        <v>987</v>
+        <v>959</v>
       </c>
       <c r="H513" t="s">
         <v>7</v>
@@ -17486,13 +17539,13 @@
     </row>
     <row r="514" spans="1:8">
       <c r="A514" t="s">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="B514" t="s">
-        <v>975</v>
+        <v>945</v>
       </c>
       <c r="C514" t="s">
-        <v>988</v>
+        <v>960</v>
       </c>
       <c r="D514" t="s">
         <v>11</v>
@@ -17501,10 +17554,10 @@
         <v>7</v>
       </c>
       <c r="F514" t="s">
-        <v>989</v>
+        <v>821</v>
       </c>
       <c r="G514" t="s">
-        <v>990</v>
+        <v>822</v>
       </c>
       <c r="H514" t="s">
         <v>7</v>
@@ -17512,13 +17565,13 @@
     </row>
     <row r="515" spans="1:8">
       <c r="A515" t="s">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="B515" t="s">
-        <v>975</v>
+        <v>945</v>
       </c>
       <c r="C515" t="s">
-        <v>991</v>
+        <v>961</v>
       </c>
       <c r="D515" t="s">
         <v>11</v>
@@ -17527,10 +17580,10 @@
         <v>7</v>
       </c>
       <c r="F515" t="s">
-        <v>992</v>
+        <v>962</v>
       </c>
       <c r="G515" t="s">
-        <v>993</v>
+        <v>963</v>
       </c>
       <c r="H515" t="s">
         <v>7</v>
@@ -17538,13 +17591,13 @@
     </row>
     <row r="516" spans="1:8">
       <c r="A516" t="s">
-        <v>994</v>
+        <v>944</v>
       </c>
       <c r="B516" t="s">
-        <v>995</v>
+        <v>945</v>
       </c>
       <c r="C516" t="s">
-        <v>996</v>
+        <v>964</v>
       </c>
       <c r="D516" t="s">
         <v>11</v>
@@ -17553,10 +17606,10 @@
         <v>7</v>
       </c>
       <c r="F516" t="s">
-        <v>997</v>
+        <v>965</v>
       </c>
       <c r="G516" t="s">
-        <v>998</v>
+        <v>966</v>
       </c>
       <c r="H516" t="s">
         <v>7</v>
@@ -17564,13 +17617,13 @@
     </row>
     <row r="517" spans="1:8">
       <c r="A517" t="s">
-        <v>994</v>
+        <v>944</v>
       </c>
       <c r="B517" t="s">
-        <v>995</v>
+        <v>945</v>
       </c>
       <c r="C517" t="s">
-        <v>999</v>
+        <v>967</v>
       </c>
       <c r="D517" t="s">
         <v>11</v>
@@ -17579,10 +17632,10 @@
         <v>7</v>
       </c>
       <c r="F517" t="s">
-        <v>1000</v>
+        <v>968</v>
       </c>
       <c r="G517" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="H517" t="s">
         <v>7</v>
@@ -17590,13 +17643,13 @@
     </row>
     <row r="518" spans="1:8">
       <c r="A518" t="s">
-        <v>994</v>
+        <v>944</v>
       </c>
       <c r="B518" t="s">
-        <v>995</v>
+        <v>945</v>
       </c>
       <c r="C518" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="D518" t="s">
         <v>11</v>
@@ -17605,10 +17658,10 @@
         <v>7</v>
       </c>
       <c r="F518" t="s">
-        <v>1003</v>
+        <v>971</v>
       </c>
       <c r="G518" t="s">
-        <v>1004</v>
+        <v>972</v>
       </c>
       <c r="H518" t="s">
         <v>7</v>
@@ -17616,13 +17669,13 @@
     </row>
     <row r="519" spans="1:8">
       <c r="A519" t="s">
-        <v>1005</v>
+        <v>944</v>
       </c>
       <c r="B519" t="s">
-        <v>446</v>
+        <v>945</v>
       </c>
       <c r="C519" t="s">
-        <v>447</v>
+        <v>973</v>
       </c>
       <c r="D519" t="s">
         <v>11</v>
@@ -17631,10 +17684,10 @@
         <v>7</v>
       </c>
       <c r="F519" t="s">
-        <v>612</v>
+        <v>974</v>
       </c>
       <c r="G519" t="s">
-        <v>613</v>
+        <v>975</v>
       </c>
       <c r="H519" t="s">
         <v>7</v>
@@ -17642,13 +17695,13 @@
     </row>
     <row r="520" spans="1:8">
       <c r="A520" t="s">
-        <v>1005</v>
+        <v>944</v>
       </c>
       <c r="B520" t="s">
-        <v>446</v>
+        <v>945</v>
       </c>
       <c r="C520" t="s">
-        <v>450</v>
+        <v>976</v>
       </c>
       <c r="D520" t="s">
         <v>11</v>
@@ -17657,10 +17710,10 @@
         <v>7</v>
       </c>
       <c r="F520" t="s">
-        <v>612</v>
+        <v>977</v>
       </c>
       <c r="G520" t="s">
-        <v>613</v>
+        <v>978</v>
       </c>
       <c r="H520" t="s">
         <v>7</v>
@@ -17668,13 +17721,13 @@
     </row>
     <row r="521" spans="1:8">
       <c r="A521" t="s">
-        <v>1005</v>
+        <v>944</v>
       </c>
       <c r="B521" t="s">
-        <v>446</v>
+        <v>945</v>
       </c>
       <c r="C521" t="s">
-        <v>453</v>
+        <v>979</v>
       </c>
       <c r="D521" t="s">
         <v>11</v>
@@ -17683,10 +17736,10 @@
         <v>7</v>
       </c>
       <c r="F521" t="s">
-        <v>454</v>
+        <v>980</v>
       </c>
       <c r="G521" t="s">
-        <v>1006</v>
+        <v>981</v>
       </c>
       <c r="H521" t="s">
         <v>7</v>
@@ -17694,13 +17747,13 @@
     </row>
     <row r="522" spans="1:8">
       <c r="A522" t="s">
-        <v>1005</v>
+        <v>944</v>
       </c>
       <c r="B522" t="s">
-        <v>446</v>
+        <v>945</v>
       </c>
       <c r="C522" t="s">
-        <v>456</v>
+        <v>982</v>
       </c>
       <c r="D522" t="s">
         <v>11</v>
@@ -17709,10 +17762,10 @@
         <v>7</v>
       </c>
       <c r="F522" t="s">
-        <v>457</v>
+        <v>983</v>
       </c>
       <c r="G522" t="s">
-        <v>458</v>
+        <v>984</v>
       </c>
       <c r="H522" t="s">
         <v>7</v>
@@ -17720,13 +17773,13 @@
     </row>
     <row r="523" spans="1:8">
       <c r="A523" t="s">
-        <v>1005</v>
+        <v>944</v>
       </c>
       <c r="B523" t="s">
-        <v>446</v>
+        <v>945</v>
       </c>
       <c r="C523" t="s">
-        <v>459</v>
+        <v>985</v>
       </c>
       <c r="D523" t="s">
         <v>11</v>
@@ -17735,10 +17788,10 @@
         <v>7</v>
       </c>
       <c r="F523" t="s">
-        <v>457</v>
+        <v>986</v>
       </c>
       <c r="G523" t="s">
-        <v>458</v>
+        <v>987</v>
       </c>
       <c r="H523" t="s">
         <v>7</v>
@@ -17746,13 +17799,13 @@
     </row>
     <row r="524" spans="1:8">
       <c r="A524" t="s">
-        <v>1005</v>
+        <v>944</v>
       </c>
       <c r="B524" t="s">
-        <v>446</v>
+        <v>945</v>
       </c>
       <c r="C524" t="s">
-        <v>460</v>
+        <v>988</v>
       </c>
       <c r="D524" t="s">
         <v>11</v>
@@ -17761,10 +17814,10 @@
         <v>7</v>
       </c>
       <c r="F524" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="G524" t="s">
-        <v>464</v>
+        <v>990</v>
       </c>
       <c r="H524" t="s">
         <v>7</v>
@@ -17772,13 +17825,13 @@
     </row>
     <row r="525" spans="1:8">
       <c r="A525" t="s">
-        <v>1005</v>
+        <v>944</v>
       </c>
       <c r="B525" t="s">
-        <v>446</v>
+        <v>945</v>
       </c>
       <c r="C525" t="s">
-        <v>462</v>
+        <v>991</v>
       </c>
       <c r="D525" t="s">
         <v>11</v>
@@ -17787,10 +17840,10 @@
         <v>7</v>
       </c>
       <c r="F525" t="s">
-        <v>330</v>
+        <v>992</v>
       </c>
       <c r="G525" t="s">
-        <v>331</v>
+        <v>993</v>
       </c>
       <c r="H525" t="s">
         <v>7</v>
@@ -17798,13 +17851,13 @@
     </row>
     <row r="526" spans="1:8">
       <c r="A526" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="B526" t="s">
-        <v>446</v>
+        <v>995</v>
       </c>
       <c r="C526" t="s">
-        <v>465</v>
+        <v>996</v>
       </c>
       <c r="D526" t="s">
         <v>11</v>
@@ -17813,10 +17866,10 @@
         <v>7</v>
       </c>
       <c r="F526" t="s">
-        <v>463</v>
+        <v>997</v>
       </c>
       <c r="G526" t="s">
-        <v>464</v>
+        <v>998</v>
       </c>
       <c r="H526" t="s">
         <v>7</v>
@@ -17824,13 +17877,13 @@
     </row>
     <row r="527" spans="1:8">
       <c r="A527" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="B527" t="s">
-        <v>446</v>
+        <v>995</v>
       </c>
       <c r="C527" t="s">
-        <v>466</v>
+        <v>999</v>
       </c>
       <c r="D527" t="s">
         <v>11</v>
@@ -17839,10 +17892,10 @@
         <v>7</v>
       </c>
       <c r="F527" t="s">
-        <v>468</v>
+        <v>1000</v>
       </c>
       <c r="G527" t="s">
-        <v>469</v>
+        <v>1001</v>
       </c>
       <c r="H527" t="s">
         <v>7</v>
@@ -17850,13 +17903,13 @@
     </row>
     <row r="528" spans="1:8">
       <c r="A528" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="B528" t="s">
-        <v>446</v>
+        <v>995</v>
       </c>
       <c r="C528" t="s">
-        <v>467</v>
+        <v>1002</v>
       </c>
       <c r="D528" t="s">
         <v>11</v>
@@ -17865,10 +17918,10 @@
         <v>7</v>
       </c>
       <c r="F528" t="s">
-        <v>471</v>
+        <v>1003</v>
       </c>
       <c r="G528" t="s">
-        <v>472</v>
+        <v>1004</v>
       </c>
       <c r="H528" t="s">
         <v>7</v>
@@ -17876,14 +17929,14 @@
     </row>
     <row r="529" spans="1:8">
       <c r="A529" t="s">
+        <v>994</v>
+      </c>
+      <c r="B529" t="s">
+        <v>995</v>
+      </c>
+      <c r="C529" t="s">
         <v>1005</v>
       </c>
-      <c r="B529" t="s">
-        <v>446</v>
-      </c>
-      <c r="C529" t="s">
-        <v>470</v>
-      </c>
       <c r="D529" t="s">
         <v>11</v>
       </c>
@@ -17891,10 +17944,10 @@
         <v>7</v>
       </c>
       <c r="F529" t="s">
-        <v>474</v>
+        <v>1006</v>
       </c>
       <c r="G529" t="s">
-        <v>475</v>
+        <v>1007</v>
       </c>
       <c r="H529" t="s">
         <v>7</v>
@@ -17902,13 +17955,13 @@
     </row>
     <row r="530" spans="1:8">
       <c r="A530" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="B530" t="s">
-        <v>446</v>
+        <v>995</v>
       </c>
       <c r="C530" t="s">
-        <v>473</v>
+        <v>1008</v>
       </c>
       <c r="D530" t="s">
         <v>11</v>
@@ -17917,10 +17970,10 @@
         <v>7</v>
       </c>
       <c r="F530" t="s">
-        <v>477</v>
+        <v>1009</v>
       </c>
       <c r="G530" t="s">
-        <v>478</v>
+        <v>1010</v>
       </c>
       <c r="H530" t="s">
         <v>7</v>
@@ -17928,13 +17981,13 @@
     </row>
     <row r="531" spans="1:8">
       <c r="A531" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="B531" t="s">
-        <v>446</v>
+        <v>995</v>
       </c>
       <c r="C531" t="s">
-        <v>476</v>
+        <v>1011</v>
       </c>
       <c r="D531" t="s">
         <v>11</v>
@@ -17943,10 +17996,10 @@
         <v>7</v>
       </c>
       <c r="F531" t="s">
-        <v>480</v>
+        <v>1012</v>
       </c>
       <c r="G531" t="s">
-        <v>481</v>
+        <v>1013</v>
       </c>
       <c r="H531" t="s">
         <v>7</v>
@@ -17954,13 +18007,13 @@
     </row>
     <row r="532" spans="1:8">
       <c r="A532" t="s">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="B532" t="s">
-        <v>446</v>
+        <v>1015</v>
       </c>
       <c r="C532" t="s">
-        <v>479</v>
+        <v>1016</v>
       </c>
       <c r="D532" t="s">
         <v>11</v>
@@ -17969,10 +18022,10 @@
         <v>7</v>
       </c>
       <c r="F532" t="s">
-        <v>483</v>
+        <v>1017</v>
       </c>
       <c r="G532" t="s">
-        <v>484</v>
+        <v>1018</v>
       </c>
       <c r="H532" t="s">
         <v>7</v>
@@ -17980,13 +18033,13 @@
     </row>
     <row r="533" spans="1:8">
       <c r="A533" t="s">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="B533" t="s">
-        <v>446</v>
+        <v>1015</v>
       </c>
       <c r="C533" t="s">
-        <v>482</v>
+        <v>1019</v>
       </c>
       <c r="D533" t="s">
         <v>11</v>
@@ -17995,10 +18048,10 @@
         <v>7</v>
       </c>
       <c r="F533" t="s">
-        <v>486</v>
+        <v>1020</v>
       </c>
       <c r="G533" t="s">
-        <v>487</v>
+        <v>1021</v>
       </c>
       <c r="H533" t="s">
         <v>7</v>
@@ -18006,13 +18059,13 @@
     </row>
     <row r="534" spans="1:8">
       <c r="A534" t="s">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="B534" t="s">
-        <v>446</v>
+        <v>1015</v>
       </c>
       <c r="C534" t="s">
-        <v>485</v>
+        <v>1022</v>
       </c>
       <c r="D534" t="s">
         <v>11</v>
@@ -18021,10 +18074,10 @@
         <v>7</v>
       </c>
       <c r="F534" t="s">
-        <v>489</v>
+        <v>1023</v>
       </c>
       <c r="G534" t="s">
-        <v>490</v>
+        <v>1024</v>
       </c>
       <c r="H534" t="s">
         <v>7</v>
@@ -18032,13 +18085,13 @@
     </row>
     <row r="535" spans="1:8">
       <c r="A535" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B535" t="s">
         <v>446</v>
       </c>
       <c r="C535" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="D535" t="s">
         <v>11</v>
@@ -18047,10 +18100,10 @@
         <v>7</v>
       </c>
       <c r="F535" t="s">
-        <v>492</v>
+        <v>612</v>
       </c>
       <c r="G535" t="s">
-        <v>493</v>
+        <v>613</v>
       </c>
       <c r="H535" t="s">
         <v>7</v>
@@ -18058,13 +18111,13 @@
     </row>
     <row r="536" spans="1:8">
       <c r="A536" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B536" t="s">
         <v>446</v>
       </c>
       <c r="C536" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="D536" t="s">
         <v>11</v>
@@ -18073,10 +18126,10 @@
         <v>7</v>
       </c>
       <c r="F536" t="s">
-        <v>495</v>
+        <v>612</v>
       </c>
       <c r="G536" t="s">
-        <v>496</v>
+        <v>613</v>
       </c>
       <c r="H536" t="s">
         <v>7</v>
@@ -18084,13 +18137,13 @@
     </row>
     <row r="537" spans="1:8">
       <c r="A537" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B537" t="s">
         <v>446</v>
       </c>
       <c r="C537" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="D537" t="s">
         <v>11</v>
@@ -18099,10 +18152,10 @@
         <v>7</v>
       </c>
       <c r="F537" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="G537" t="s">
-        <v>499</v>
+        <v>1026</v>
       </c>
       <c r="H537" t="s">
         <v>7</v>
@@ -18110,13 +18163,13 @@
     </row>
     <row r="538" spans="1:8">
       <c r="A538" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B538" t="s">
         <v>446</v>
       </c>
       <c r="C538" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="D538" t="s">
         <v>11</v>
@@ -18125,10 +18178,10 @@
         <v>7</v>
       </c>
       <c r="F538" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="G538" t="s">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="H538" t="s">
         <v>7</v>
@@ -18136,13 +18189,13 @@
     </row>
     <row r="539" spans="1:8">
       <c r="A539" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B539" t="s">
         <v>446</v>
       </c>
       <c r="C539" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="D539" t="s">
         <v>11</v>
@@ -18151,10 +18204,10 @@
         <v>7</v>
       </c>
       <c r="F539" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="G539" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="H539" t="s">
         <v>7</v>
@@ -18162,13 +18215,13 @@
     </row>
     <row r="540" spans="1:8">
       <c r="A540" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B540" t="s">
         <v>446</v>
       </c>
       <c r="C540" t="s">
-        <v>503</v>
+        <v>460</v>
       </c>
       <c r="D540" t="s">
         <v>11</v>
@@ -18177,10 +18230,10 @@
         <v>7</v>
       </c>
       <c r="F540" t="s">
-        <v>507</v>
+        <v>1027</v>
       </c>
       <c r="G540" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="H540" t="s">
         <v>7</v>
@@ -18188,13 +18241,13 @@
     </row>
     <row r="541" spans="1:8">
       <c r="A541" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B541" t="s">
         <v>446</v>
       </c>
       <c r="C541" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="D541" t="s">
         <v>11</v>
@@ -18203,10 +18256,10 @@
         <v>7</v>
       </c>
       <c r="F541" t="s">
-        <v>510</v>
+        <v>330</v>
       </c>
       <c r="G541" t="s">
-        <v>511</v>
+        <v>331</v>
       </c>
       <c r="H541" t="s">
         <v>7</v>
@@ -18214,13 +18267,13 @@
     </row>
     <row r="542" spans="1:8">
       <c r="A542" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B542" t="s">
         <v>446</v>
       </c>
       <c r="C542" t="s">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="D542" t="s">
         <v>11</v>
@@ -18229,10 +18282,10 @@
         <v>7</v>
       </c>
       <c r="F542" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="G542" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="H542" t="s">
         <v>7</v>
@@ -18240,13 +18293,13 @@
     </row>
     <row r="543" spans="1:8">
       <c r="A543" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B543" t="s">
         <v>446</v>
       </c>
       <c r="C543" t="s">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="D543" t="s">
         <v>11</v>
@@ -18255,24 +18308,24 @@
         <v>7</v>
       </c>
       <c r="F543" t="s">
-        <v>516</v>
+        <v>468</v>
       </c>
       <c r="G543" t="s">
-        <v>517</v>
-      </c>
-      <c r="H543" t="s">
-        <v>7</v>
+        <v>469</v>
+      </c>
+      <c r="H543">
+        <v>20180928</v>
       </c>
     </row>
     <row r="544" spans="1:8">
       <c r="A544" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B544" t="s">
         <v>446</v>
       </c>
       <c r="C544" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
       <c r="D544" t="s">
         <v>11</v>
@@ -18281,24 +18334,24 @@
         <v>7</v>
       </c>
       <c r="F544" t="s">
-        <v>519</v>
+        <v>471</v>
       </c>
       <c r="G544" t="s">
-        <v>520</v>
-      </c>
-      <c r="H544" t="s">
-        <v>7</v>
+        <v>472</v>
+      </c>
+      <c r="H544">
+        <v>20180928</v>
       </c>
     </row>
     <row r="545" spans="1:8">
       <c r="A545" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B545" t="s">
         <v>446</v>
       </c>
       <c r="C545" t="s">
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="D545" t="s">
         <v>11</v>
@@ -18307,10 +18360,10 @@
         <v>7</v>
       </c>
       <c r="F545" t="s">
-        <v>522</v>
+        <v>474</v>
       </c>
       <c r="G545" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="H545" t="s">
         <v>7</v>
@@ -18318,13 +18371,13 @@
     </row>
     <row r="546" spans="1:8">
       <c r="A546" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B546" t="s">
         <v>446</v>
       </c>
       <c r="C546" t="s">
-        <v>521</v>
+        <v>473</v>
       </c>
       <c r="D546" t="s">
         <v>11</v>
@@ -18333,24 +18386,24 @@
         <v>7</v>
       </c>
       <c r="F546" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
       <c r="G546" t="s">
-        <v>526</v>
-      </c>
-      <c r="H546" t="s">
-        <v>7</v>
+        <v>478</v>
+      </c>
+      <c r="H546">
+        <v>20180928</v>
       </c>
     </row>
     <row r="547" spans="1:8">
       <c r="A547" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B547" t="s">
         <v>446</v>
       </c>
       <c r="C547" t="s">
-        <v>524</v>
+        <v>476</v>
       </c>
       <c r="D547" t="s">
         <v>11</v>
@@ -18359,10 +18412,10 @@
         <v>7</v>
       </c>
       <c r="F547" t="s">
-        <v>1008</v>
+        <v>480</v>
       </c>
       <c r="G547" t="s">
-        <v>1009</v>
+        <v>481</v>
       </c>
       <c r="H547" t="s">
         <v>7</v>
@@ -18370,13 +18423,13 @@
     </row>
     <row r="548" spans="1:8">
       <c r="A548" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B548" t="s">
         <v>446</v>
       </c>
       <c r="C548" t="s">
-        <v>527</v>
+        <v>479</v>
       </c>
       <c r="D548" t="s">
         <v>11</v>
@@ -18385,24 +18438,24 @@
         <v>7</v>
       </c>
       <c r="F548" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="G548" t="s">
-        <v>532</v>
-      </c>
-      <c r="H548" t="s">
-        <v>7</v>
+        <v>484</v>
+      </c>
+      <c r="H548">
+        <v>20180928</v>
       </c>
     </row>
     <row r="549" spans="1:8">
       <c r="A549" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B549" t="s">
         <v>446</v>
       </c>
       <c r="C549" t="s">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="D549" t="s">
         <v>11</v>
@@ -18411,10 +18464,10 @@
         <v>7</v>
       </c>
       <c r="F549" t="s">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="G549" t="s">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="H549" t="s">
         <v>7</v>
@@ -18422,13 +18475,13 @@
     </row>
     <row r="550" spans="1:8">
       <c r="A550" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B550" t="s">
         <v>446</v>
       </c>
       <c r="C550" t="s">
-        <v>533</v>
+        <v>485</v>
       </c>
       <c r="D550" t="s">
         <v>11</v>
@@ -18437,24 +18490,24 @@
         <v>7</v>
       </c>
       <c r="F550" t="s">
-        <v>535</v>
-      </c>
-      <c r="G550">
-        <v>-50</v>
-      </c>
-      <c r="H550" t="s">
-        <v>7</v>
+        <v>489</v>
+      </c>
+      <c r="G550" t="s">
+        <v>490</v>
+      </c>
+      <c r="H550">
+        <v>20180928</v>
       </c>
     </row>
     <row r="551" spans="1:8">
       <c r="A551" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B551" t="s">
         <v>446</v>
       </c>
       <c r="C551" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="D551" t="s">
         <v>11</v>
@@ -18463,10 +18516,10 @@
         <v>7</v>
       </c>
       <c r="F551" t="s">
-        <v>537</v>
-      </c>
-      <c r="G551">
-        <v>-2000</v>
+        <v>492</v>
+      </c>
+      <c r="G551" t="s">
+        <v>493</v>
       </c>
       <c r="H551" t="s">
         <v>7</v>
@@ -18474,13 +18527,13 @@
     </row>
     <row r="552" spans="1:8">
       <c r="A552" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B552" t="s">
         <v>446</v>
       </c>
       <c r="C552" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
       <c r="D552" t="s">
         <v>11</v>
@@ -18489,24 +18542,24 @@
         <v>7</v>
       </c>
       <c r="F552" t="s">
-        <v>387</v>
+        <v>495</v>
       </c>
       <c r="G552" t="s">
-        <v>539</v>
-      </c>
-      <c r="H552" t="s">
-        <v>7</v>
+        <v>496</v>
+      </c>
+      <c r="H552">
+        <v>20180928</v>
       </c>
     </row>
     <row r="553" spans="1:8">
       <c r="A553" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B553" t="s">
         <v>446</v>
       </c>
       <c r="C553" t="s">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="D553" t="s">
         <v>11</v>
@@ -18515,24 +18568,24 @@
         <v>7</v>
       </c>
       <c r="F553" t="s">
-        <v>1010</v>
+        <v>498</v>
       </c>
       <c r="G553" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H553" t="s">
-        <v>7</v>
+        <v>499</v>
+      </c>
+      <c r="H553">
+        <v>20180928</v>
       </c>
     </row>
     <row r="554" spans="1:8">
       <c r="A554" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B554" t="s">
         <v>446</v>
       </c>
       <c r="C554" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="D554" t="s">
         <v>11</v>
@@ -18541,24 +18594,24 @@
         <v>7</v>
       </c>
       <c r="F554" t="s">
-        <v>1012</v>
+        <v>501</v>
       </c>
       <c r="G554" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H554" t="s">
-        <v>7</v>
+        <v>502</v>
+      </c>
+      <c r="H554">
+        <v>20180928</v>
       </c>
     </row>
     <row r="555" spans="1:8">
       <c r="A555" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B555" t="s">
         <v>446</v>
       </c>
       <c r="C555" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="D555" t="s">
         <v>11</v>
@@ -18567,10 +18620,10 @@
         <v>7</v>
       </c>
       <c r="F555" t="s">
-        <v>1014</v>
+        <v>504</v>
       </c>
       <c r="G555" t="s">
-        <v>1015</v>
+        <v>505</v>
       </c>
       <c r="H555" t="s">
         <v>7</v>
@@ -18578,13 +18631,13 @@
     </row>
     <row r="556" spans="1:8">
       <c r="A556" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B556" t="s">
         <v>446</v>
       </c>
       <c r="C556" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="D556" t="s">
         <v>11</v>
@@ -18593,10 +18646,10 @@
         <v>7</v>
       </c>
       <c r="F556" t="s">
-        <v>554</v>
+        <v>507</v>
       </c>
       <c r="G556" t="s">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="H556" t="s">
         <v>7</v>
@@ -18604,13 +18657,13 @@
     </row>
     <row r="557" spans="1:8">
       <c r="A557" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B557" t="s">
         <v>446</v>
       </c>
       <c r="C557" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="D557" t="s">
         <v>11</v>
@@ -18619,24 +18672,24 @@
         <v>7</v>
       </c>
       <c r="F557" t="s">
-        <v>554</v>
+        <v>510</v>
       </c>
       <c r="G557" t="s">
-        <v>555</v>
-      </c>
-      <c r="H557" t="s">
-        <v>7</v>
+        <v>511</v>
+      </c>
+      <c r="H557">
+        <v>20180928</v>
       </c>
     </row>
     <row r="558" spans="1:8">
       <c r="A558" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B558" t="s">
         <v>446</v>
       </c>
       <c r="C558" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="D558" t="s">
         <v>11</v>
@@ -18645,10 +18698,10 @@
         <v>7</v>
       </c>
       <c r="F558" t="s">
-        <v>567</v>
+        <v>513</v>
       </c>
       <c r="G558" t="s">
-        <v>370</v>
+        <v>514</v>
       </c>
       <c r="H558" t="s">
         <v>7</v>
@@ -18656,13 +18709,13 @@
     </row>
     <row r="559" spans="1:8">
       <c r="A559" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B559" t="s">
         <v>446</v>
       </c>
       <c r="C559" t="s">
-        <v>551</v>
+        <v>512</v>
       </c>
       <c r="D559" t="s">
         <v>11</v>
@@ -18671,10 +18724,10 @@
         <v>7</v>
       </c>
       <c r="F559" t="s">
-        <v>569</v>
+        <v>516</v>
       </c>
       <c r="G559" t="s">
-        <v>570</v>
+        <v>517</v>
       </c>
       <c r="H559" t="s">
         <v>7</v>
@@ -18682,13 +18735,13 @@
     </row>
     <row r="560" spans="1:8">
       <c r="A560" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B560" t="s">
         <v>446</v>
       </c>
       <c r="C560" t="s">
-        <v>553</v>
+        <v>515</v>
       </c>
       <c r="D560" t="s">
         <v>11</v>
@@ -18697,24 +18750,24 @@
         <v>7</v>
       </c>
       <c r="F560" t="s">
-        <v>572</v>
+        <v>519</v>
       </c>
       <c r="G560" t="s">
-        <v>573</v>
-      </c>
-      <c r="H560" t="s">
-        <v>7</v>
+        <v>520</v>
+      </c>
+      <c r="H560">
+        <v>20180928</v>
       </c>
     </row>
     <row r="561" spans="1:8">
       <c r="A561" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B561" t="s">
         <v>446</v>
       </c>
       <c r="C561" t="s">
-        <v>556</v>
+        <v>518</v>
       </c>
       <c r="D561" t="s">
         <v>11</v>
@@ -18723,10 +18776,10 @@
         <v>7</v>
       </c>
       <c r="F561" t="s">
-        <v>1016</v>
+        <v>522</v>
       </c>
       <c r="G561" t="s">
-        <v>1017</v>
+        <v>523</v>
       </c>
       <c r="H561" t="s">
         <v>7</v>
@@ -18734,13 +18787,13 @@
     </row>
     <row r="562" spans="1:8">
       <c r="A562" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B562" t="s">
         <v>446</v>
       </c>
       <c r="C562" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="D562" t="s">
         <v>11</v>
@@ -18749,10 +18802,10 @@
         <v>7</v>
       </c>
       <c r="F562" t="s">
-        <v>1016</v>
+        <v>525</v>
       </c>
       <c r="G562" t="s">
-        <v>1017</v>
+        <v>526</v>
       </c>
       <c r="H562" t="s">
         <v>7</v>
@@ -18760,13 +18813,13 @@
     </row>
     <row r="563" spans="1:8">
       <c r="A563" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="B563" t="s">
         <v>446</v>
       </c>
       <c r="C563" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="D563" t="s">
         <v>11</v>
@@ -18775,10 +18828,10 @@
         <v>7</v>
       </c>
       <c r="F563" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
       <c r="G563" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="H563" t="s">
         <v>7</v>
@@ -18786,13 +18839,13 @@
     </row>
     <row r="564" spans="1:8">
       <c r="A564" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B564" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C564" t="s">
-        <v>10</v>
+        <v>527</v>
       </c>
       <c r="D564" t="s">
         <v>11</v>
@@ -18801,10 +18854,10 @@
         <v>7</v>
       </c>
       <c r="F564" t="s">
-        <v>1019</v>
+        <v>531</v>
       </c>
       <c r="G564" t="s">
-        <v>1020</v>
+        <v>532</v>
       </c>
       <c r="H564" t="s">
         <v>7</v>
@@ -18812,13 +18865,13 @@
     </row>
     <row r="565" spans="1:8">
       <c r="A565" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B565" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C565" t="s">
-        <v>17</v>
+        <v>530</v>
       </c>
       <c r="D565" t="s">
         <v>11</v>
@@ -18827,10 +18880,10 @@
         <v>7</v>
       </c>
       <c r="F565" t="s">
-        <v>1021</v>
+        <v>528</v>
       </c>
       <c r="G565" t="s">
-        <v>1022</v>
+        <v>529</v>
       </c>
       <c r="H565" t="s">
         <v>7</v>
@@ -18838,13 +18891,13 @@
     </row>
     <row r="566" spans="1:8">
       <c r="A566" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B566" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C566" t="s">
-        <v>20</v>
+        <v>533</v>
       </c>
       <c r="D566" t="s">
         <v>11</v>
@@ -18853,10 +18906,10 @@
         <v>7</v>
       </c>
       <c r="F566" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G566" t="s">
-        <v>1024</v>
+        <v>535</v>
+      </c>
+      <c r="G566">
+        <v>-50</v>
       </c>
       <c r="H566" t="s">
         <v>7</v>
@@ -18864,13 +18917,13 @@
     </row>
     <row r="567" spans="1:8">
       <c r="A567" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B567" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C567" t="s">
-        <v>23</v>
+        <v>534</v>
       </c>
       <c r="D567" t="s">
         <v>11</v>
@@ -18879,10 +18932,10 @@
         <v>7</v>
       </c>
       <c r="F567" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G567" t="s">
-        <v>1026</v>
+        <v>537</v>
+      </c>
+      <c r="G567">
+        <v>-2000</v>
       </c>
       <c r="H567" t="s">
         <v>7</v>
@@ -18890,13 +18943,13 @@
     </row>
     <row r="568" spans="1:8">
       <c r="A568" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B568" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C568" t="s">
-        <v>26</v>
+        <v>536</v>
       </c>
       <c r="D568" t="s">
         <v>11</v>
@@ -18905,10 +18958,10 @@
         <v>7</v>
       </c>
       <c r="F568" t="s">
-        <v>1027</v>
+        <v>387</v>
       </c>
       <c r="G568" t="s">
-        <v>1028</v>
+        <v>539</v>
       </c>
       <c r="H568" t="s">
         <v>7</v>
@@ -18916,13 +18969,13 @@
     </row>
     <row r="569" spans="1:8">
       <c r="A569" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B569" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C569" t="s">
-        <v>27</v>
+        <v>538</v>
       </c>
       <c r="D569" t="s">
         <v>11</v>
@@ -18931,10 +18984,10 @@
         <v>7</v>
       </c>
       <c r="F569" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="G569" t="s">
-        <v>241</v>
+        <v>1031</v>
       </c>
       <c r="H569" t="s">
         <v>7</v>
@@ -18942,13 +18995,13 @@
     </row>
     <row r="570" spans="1:8">
       <c r="A570" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B570" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C570" t="s">
-        <v>30</v>
+        <v>540</v>
       </c>
       <c r="D570" t="s">
         <v>11</v>
@@ -18957,10 +19010,10 @@
         <v>7</v>
       </c>
       <c r="F570" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="G570" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="H570" t="s">
         <v>7</v>
@@ -18968,13 +19021,13 @@
     </row>
     <row r="571" spans="1:8">
       <c r="A571" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B571" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C571" t="s">
-        <v>136</v>
+        <v>543</v>
       </c>
       <c r="D571" t="s">
         <v>11</v>
@@ -18983,10 +19036,10 @@
         <v>7</v>
       </c>
       <c r="F571" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="G571" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="H571" t="s">
         <v>7</v>
@@ -18994,13 +19047,13 @@
     </row>
     <row r="572" spans="1:8">
       <c r="A572" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B572" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C572" t="s">
-        <v>139</v>
+        <v>546</v>
       </c>
       <c r="D572" t="s">
         <v>11</v>
@@ -19009,10 +19062,10 @@
         <v>7</v>
       </c>
       <c r="F572" t="s">
-        <v>1034</v>
+        <v>554</v>
       </c>
       <c r="G572" t="s">
-        <v>1035</v>
+        <v>555</v>
       </c>
       <c r="H572" t="s">
         <v>7</v>
@@ -19020,13 +19073,13 @@
     </row>
     <row r="573" spans="1:8">
       <c r="A573" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B573" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C573" t="s">
-        <v>142</v>
+        <v>547</v>
       </c>
       <c r="D573" t="s">
         <v>11</v>
@@ -19035,10 +19088,10 @@
         <v>7</v>
       </c>
       <c r="F573" t="s">
-        <v>1036</v>
+        <v>554</v>
       </c>
       <c r="G573" t="s">
-        <v>1037</v>
+        <v>555</v>
       </c>
       <c r="H573" t="s">
         <v>7</v>
@@ -19046,13 +19099,13 @@
     </row>
     <row r="574" spans="1:8">
       <c r="A574" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B574" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C574" t="s">
-        <v>145</v>
+        <v>548</v>
       </c>
       <c r="D574" t="s">
         <v>11</v>
@@ -19061,10 +19114,10 @@
         <v>7</v>
       </c>
       <c r="F574" t="s">
-        <v>1038</v>
+        <v>567</v>
       </c>
       <c r="G574" t="s">
-        <v>1039</v>
+        <v>370</v>
       </c>
       <c r="H574" t="s">
         <v>7</v>
@@ -19072,13 +19125,13 @@
     </row>
     <row r="575" spans="1:8">
       <c r="A575" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B575" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C575" t="s">
-        <v>148</v>
+        <v>551</v>
       </c>
       <c r="D575" t="s">
         <v>11</v>
@@ -19087,10 +19140,10 @@
         <v>7</v>
       </c>
       <c r="F575" t="s">
-        <v>1040</v>
+        <v>569</v>
       </c>
       <c r="G575" t="s">
-        <v>1041</v>
+        <v>570</v>
       </c>
       <c r="H575" t="s">
         <v>7</v>
@@ -19098,13 +19151,13 @@
     </row>
     <row r="576" spans="1:8">
       <c r="A576" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B576" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C576" t="s">
-        <v>151</v>
+        <v>553</v>
       </c>
       <c r="D576" t="s">
         <v>11</v>
@@ -19113,10 +19166,10 @@
         <v>7</v>
       </c>
       <c r="F576" t="s">
-        <v>1042</v>
+        <v>572</v>
       </c>
       <c r="G576" t="s">
-        <v>1043</v>
+        <v>573</v>
       </c>
       <c r="H576" t="s">
         <v>7</v>
@@ -19124,13 +19177,13 @@
     </row>
     <row r="577" spans="1:8">
       <c r="A577" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B577" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C577" t="s">
-        <v>153</v>
+        <v>556</v>
       </c>
       <c r="D577" t="s">
         <v>11</v>
@@ -19139,10 +19192,10 @@
         <v>7</v>
       </c>
       <c r="F577" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="G577" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="H577" t="s">
         <v>7</v>
@@ -19150,13 +19203,13 @@
     </row>
     <row r="578" spans="1:8">
       <c r="A578" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B578" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C578" t="s">
-        <v>156</v>
+        <v>557</v>
       </c>
       <c r="D578" t="s">
         <v>11</v>
@@ -19165,10 +19218,10 @@
         <v>7</v>
       </c>
       <c r="F578" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="G578" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="H578" t="s">
         <v>7</v>
@@ -19176,13 +19229,13 @@
     </row>
     <row r="579" spans="1:8">
       <c r="A579" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B579" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C579" t="s">
-        <v>159</v>
+        <v>560</v>
       </c>
       <c r="D579" t="s">
         <v>11</v>
@@ -19191,10 +19244,10 @@
         <v>7</v>
       </c>
       <c r="F579" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="G579" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="H579" t="s">
         <v>7</v>
@@ -19202,13 +19255,13 @@
     </row>
     <row r="580" spans="1:8">
       <c r="A580" t="s">
-        <v>1018</v>
+        <v>1038</v>
       </c>
       <c r="B580" t="s">
         <v>9</v>
       </c>
       <c r="C580" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="D580" t="s">
         <v>11</v>
@@ -19217,10 +19270,10 @@
         <v>7</v>
       </c>
       <c r="F580" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="G580" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="H580" t="s">
         <v>7</v>
@@ -19228,13 +19281,13 @@
     </row>
     <row r="581" spans="1:8">
       <c r="A581" t="s">
-        <v>1018</v>
+        <v>1038</v>
       </c>
       <c r="B581" t="s">
         <v>9</v>
       </c>
       <c r="C581" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="D581" t="s">
         <v>11</v>
@@ -19243,10 +19296,10 @@
         <v>7</v>
       </c>
       <c r="F581" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="G581" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="H581" t="s">
         <v>7</v>
@@ -19254,13 +19307,13 @@
     </row>
     <row r="582" spans="1:8">
       <c r="A582" t="s">
-        <v>1018</v>
+        <v>1038</v>
       </c>
       <c r="B582" t="s">
         <v>9</v>
       </c>
       <c r="C582" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="D582" t="s">
         <v>11</v>
@@ -19269,10 +19322,10 @@
         <v>7</v>
       </c>
       <c r="F582" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="G582" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="H582" t="s">
         <v>7</v>
@@ -19280,13 +19333,13 @@
     </row>
     <row r="583" spans="1:8">
       <c r="A583" t="s">
-        <v>1018</v>
+        <v>1038</v>
       </c>
       <c r="B583" t="s">
         <v>9</v>
       </c>
       <c r="C583" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="D583" t="s">
         <v>11</v>
@@ -19295,10 +19348,10 @@
         <v>7</v>
       </c>
       <c r="F583" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="G583" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="H583" t="s">
         <v>7</v>
@@ -19306,13 +19359,13 @@
     </row>
     <row r="584" spans="1:8">
       <c r="A584" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
       <c r="B584" t="s">
-        <v>701</v>
+        <v>9</v>
       </c>
       <c r="C584" t="s">
-        <v>702</v>
+        <v>26</v>
       </c>
       <c r="D584" t="s">
         <v>11</v>
@@ -19321,10 +19374,10 @@
         <v>7</v>
       </c>
       <c r="F584" t="s">
-        <v>720</v>
+        <v>1047</v>
       </c>
       <c r="G584" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="H584" t="s">
         <v>7</v>
@@ -19332,13 +19385,13 @@
     </row>
     <row r="585" spans="1:8">
       <c r="A585" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
       <c r="B585" t="s">
-        <v>701</v>
+        <v>9</v>
       </c>
       <c r="C585" t="s">
-        <v>703</v>
+        <v>27</v>
       </c>
       <c r="D585" t="s">
         <v>11</v>
@@ -19347,10 +19400,10 @@
         <v>7</v>
       </c>
       <c r="F585" t="s">
-        <v>720</v>
+        <v>1049</v>
       </c>
       <c r="G585" t="s">
-        <v>1059</v>
+        <v>241</v>
       </c>
       <c r="H585" t="s">
         <v>7</v>
@@ -19358,13 +19411,13 @@
     </row>
     <row r="586" spans="1:8">
       <c r="A586" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
       <c r="B586" t="s">
         <v>9</v>
       </c>
       <c r="C586" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D586" t="s">
         <v>11</v>
@@ -19373,10 +19426,10 @@
         <v>7</v>
       </c>
       <c r="F586" t="s">
-        <v>28</v>
+        <v>1050</v>
       </c>
       <c r="G586" t="s">
-        <v>29</v>
+        <v>1051</v>
       </c>
       <c r="H586" t="s">
         <v>7</v>
@@ -19384,13 +19437,13 @@
     </row>
     <row r="587" spans="1:8">
       <c r="A587" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
       <c r="B587" t="s">
         <v>9</v>
       </c>
       <c r="C587" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D587" t="s">
         <v>11</v>
@@ -19399,10 +19452,10 @@
         <v>7</v>
       </c>
       <c r="F587" t="s">
-        <v>18</v>
+        <v>1052</v>
       </c>
       <c r="G587" t="s">
-        <v>19</v>
+        <v>1053</v>
       </c>
       <c r="H587" t="s">
         <v>7</v>
@@ -19410,13 +19463,13 @@
     </row>
     <row r="588" spans="1:8">
       <c r="A588" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
       <c r="B588" t="s">
         <v>9</v>
       </c>
       <c r="C588" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="D588" t="s">
         <v>11</v>
@@ -19425,10 +19478,10 @@
         <v>7</v>
       </c>
       <c r="F588" t="s">
-        <v>438</v>
+        <v>1054</v>
       </c>
       <c r="G588" t="s">
-        <v>439</v>
+        <v>1055</v>
       </c>
       <c r="H588" t="s">
         <v>7</v>
@@ -19436,13 +19489,13 @@
     </row>
     <row r="589" spans="1:8">
       <c r="A589" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
       <c r="B589" t="s">
         <v>9</v>
       </c>
       <c r="C589" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="D589" t="s">
         <v>11</v>
@@ -19451,10 +19504,10 @@
         <v>7</v>
       </c>
       <c r="F589" t="s">
-        <v>188</v>
+        <v>1056</v>
       </c>
       <c r="G589" t="s">
-        <v>189</v>
+        <v>1057</v>
       </c>
       <c r="H589" t="s">
         <v>7</v>
@@ -19462,13 +19515,13 @@
     </row>
     <row r="590" spans="1:8">
       <c r="A590" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
       <c r="B590" t="s">
         <v>9</v>
       </c>
       <c r="C590" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D590" t="s">
         <v>11</v>
@@ -19477,10 +19530,10 @@
         <v>7</v>
       </c>
       <c r="F590" t="s">
-        <v>261</v>
+        <v>1058</v>
       </c>
       <c r="G590" t="s">
-        <v>262</v>
+        <v>1059</v>
       </c>
       <c r="H590" t="s">
         <v>7</v>
@@ -19488,25 +19541,25 @@
     </row>
     <row r="591" spans="1:8">
       <c r="A591" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B591" t="s">
+        <v>9</v>
+      </c>
+      <c r="C591" t="s">
+        <v>148</v>
+      </c>
+      <c r="D591" t="s">
+        <v>11</v>
+      </c>
+      <c r="E591" t="s">
+        <v>7</v>
+      </c>
+      <c r="F591" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G591" t="s">
         <v>1061</v>
-      </c>
-      <c r="B591" t="s">
-        <v>9</v>
-      </c>
-      <c r="C591" t="s">
-        <v>20</v>
-      </c>
-      <c r="D591" t="s">
-        <v>11</v>
-      </c>
-      <c r="E591" t="s">
-        <v>7</v>
-      </c>
-      <c r="F591" t="s">
-        <v>261</v>
-      </c>
-      <c r="G591" t="s">
-        <v>262</v>
       </c>
       <c r="H591" t="s">
         <v>7</v>
@@ -19514,13 +19567,13 @@
     </row>
     <row r="592" spans="1:8">
       <c r="A592" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
       <c r="B592" t="s">
         <v>9</v>
       </c>
       <c r="C592" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="D592" t="s">
         <v>11</v>
@@ -19529,10 +19582,10 @@
         <v>7</v>
       </c>
       <c r="F592" t="s">
-        <v>261</v>
+        <v>1062</v>
       </c>
       <c r="G592" t="s">
-        <v>262</v>
+        <v>1063</v>
       </c>
       <c r="H592" t="s">
         <v>7</v>
@@ -19540,13 +19593,13 @@
     </row>
     <row r="593" spans="1:8">
       <c r="A593" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
       <c r="B593" t="s">
         <v>9</v>
       </c>
       <c r="C593" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="D593" t="s">
         <v>11</v>
@@ -19555,10 +19608,10 @@
         <v>7</v>
       </c>
       <c r="F593" t="s">
-        <v>261</v>
+        <v>1064</v>
       </c>
       <c r="G593" t="s">
-        <v>262</v>
+        <v>1065</v>
       </c>
       <c r="H593" t="s">
         <v>7</v>
@@ -19566,13 +19619,13 @@
     </row>
     <row r="594" spans="1:8">
       <c r="A594" t="s">
-        <v>1062</v>
+        <v>1038</v>
       </c>
       <c r="B594" t="s">
         <v>9</v>
       </c>
       <c r="C594" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="D594" t="s">
         <v>11</v>
@@ -19581,10 +19634,10 @@
         <v>7</v>
       </c>
       <c r="F594" t="s">
-        <v>24</v>
+        <v>1066</v>
       </c>
       <c r="G594" t="s">
-        <v>25</v>
+        <v>1067</v>
       </c>
       <c r="H594" t="s">
         <v>7</v>
@@ -19592,13 +19645,13 @@
     </row>
     <row r="595" spans="1:8">
       <c r="A595" t="s">
-        <v>1062</v>
+        <v>1038</v>
       </c>
       <c r="B595" t="s">
         <v>9</v>
       </c>
       <c r="C595" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="D595" t="s">
         <v>11</v>
@@ -19607,10 +19660,10 @@
         <v>7</v>
       </c>
       <c r="F595" t="s">
-        <v>24</v>
+        <v>1068</v>
       </c>
       <c r="G595" t="s">
-        <v>25</v>
+        <v>1069</v>
       </c>
       <c r="H595" t="s">
         <v>7</v>
@@ -19618,13 +19671,13 @@
     </row>
     <row r="596" spans="1:8">
       <c r="A596" t="s">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="B596" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="C596" t="s">
-        <v>1065</v>
+        <v>162</v>
       </c>
       <c r="D596" t="s">
         <v>11</v>
@@ -19633,10 +19686,10 @@
         <v>7</v>
       </c>
       <c r="F596" t="s">
-        <v>698</v>
+        <v>1070</v>
       </c>
       <c r="G596" t="s">
-        <v>699</v>
+        <v>1071</v>
       </c>
       <c r="H596" t="s">
         <v>7</v>
@@ -19644,13 +19697,13 @@
     </row>
     <row r="597" spans="1:8">
       <c r="A597" t="s">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="B597" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="C597" t="s">
-        <v>1066</v>
+        <v>163</v>
       </c>
       <c r="D597" t="s">
         <v>11</v>
@@ -19659,10 +19712,10 @@
         <v>7</v>
       </c>
       <c r="F597" t="s">
-        <v>698</v>
+        <v>1072</v>
       </c>
       <c r="G597" t="s">
-        <v>699</v>
+        <v>1073</v>
       </c>
       <c r="H597" t="s">
         <v>7</v>
@@ -19670,13 +19723,13 @@
     </row>
     <row r="598" spans="1:8">
       <c r="A598" t="s">
-        <v>1067</v>
+        <v>1038</v>
       </c>
       <c r="B598" t="s">
         <v>9</v>
       </c>
       <c r="C598" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="D598" t="s">
         <v>11</v>
@@ -19685,10 +19738,10 @@
         <v>7</v>
       </c>
       <c r="F598" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="G598" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="H598" t="s">
         <v>7</v>
@@ -19696,13 +19749,13 @@
     </row>
     <row r="599" spans="1:8">
       <c r="A599" t="s">
-        <v>1067</v>
+        <v>1038</v>
       </c>
       <c r="B599" t="s">
         <v>9</v>
       </c>
       <c r="C599" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="D599" t="s">
         <v>11</v>
@@ -19711,10 +19764,10 @@
         <v>7</v>
       </c>
       <c r="F599" t="s">
-        <v>188</v>
+        <v>1076</v>
       </c>
       <c r="G599" t="s">
-        <v>189</v>
+        <v>1077</v>
       </c>
       <c r="H599" t="s">
         <v>7</v>
@@ -19722,13 +19775,13 @@
     </row>
     <row r="600" spans="1:8">
       <c r="A600" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="B600" t="s">
-        <v>9</v>
+        <v>701</v>
       </c>
       <c r="C600" t="s">
-        <v>10</v>
+        <v>702</v>
       </c>
       <c r="D600" t="s">
         <v>11</v>
@@ -19737,10 +19790,10 @@
         <v>7</v>
       </c>
       <c r="F600" t="s">
-        <v>1071</v>
+        <v>720</v>
       </c>
       <c r="G600" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="H600" t="s">
         <v>7</v>
@@ -19748,13 +19801,13 @@
     </row>
     <row r="601" spans="1:8">
       <c r="A601" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="B601" t="s">
-        <v>9</v>
+        <v>701</v>
       </c>
       <c r="C601" t="s">
-        <v>17</v>
+        <v>703</v>
       </c>
       <c r="D601" t="s">
         <v>11</v>
@@ -19763,10 +19816,10 @@
         <v>7</v>
       </c>
       <c r="F601" t="s">
-        <v>1071</v>
+        <v>720</v>
       </c>
       <c r="G601" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="H601" t="s">
         <v>7</v>
@@ -19774,7 +19827,7 @@
     </row>
     <row r="602" spans="1:8">
       <c r="A602" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="B602" t="s">
         <v>9</v>
@@ -19789,10 +19842,10 @@
         <v>7</v>
       </c>
       <c r="F602" t="s">
-        <v>1074</v>
+        <v>28</v>
       </c>
       <c r="G602" t="s">
-        <v>1075</v>
+        <v>29</v>
       </c>
       <c r="H602" t="s">
         <v>7</v>
@@ -19800,7 +19853,7 @@
     </row>
     <row r="603" spans="1:8">
       <c r="A603" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="B603" t="s">
         <v>9</v>
@@ -19815,10 +19868,10 @@
         <v>7</v>
       </c>
       <c r="F603" t="s">
-        <v>1074</v>
+        <v>18</v>
       </c>
       <c r="G603" t="s">
-        <v>1075</v>
+        <v>19</v>
       </c>
       <c r="H603" t="s">
         <v>7</v>
@@ -19826,7 +19879,7 @@
     </row>
     <row r="604" spans="1:8">
       <c r="A604" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="B604" t="s">
         <v>9</v>
@@ -19841,10 +19894,10 @@
         <v>7</v>
       </c>
       <c r="F604" t="s">
-        <v>1074</v>
+        <v>438</v>
       </c>
       <c r="G604" t="s">
-        <v>1075</v>
+        <v>439</v>
       </c>
       <c r="H604" t="s">
         <v>7</v>
@@ -19852,13 +19905,13 @@
     </row>
     <row r="605" spans="1:8">
       <c r="A605" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="B605" t="s">
         <v>9</v>
       </c>
       <c r="C605" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D605" t="s">
         <v>11</v>
@@ -19867,10 +19920,10 @@
         <v>7</v>
       </c>
       <c r="F605" t="s">
-        <v>1076</v>
+        <v>188</v>
       </c>
       <c r="G605" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="H605" t="s">
         <v>7</v>
@@ -19878,13 +19931,13 @@
     </row>
     <row r="606" spans="1:8">
       <c r="A606" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="B606" t="s">
         <v>9</v>
       </c>
       <c r="C606" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D606" t="s">
         <v>11</v>
@@ -19893,10 +19946,10 @@
         <v>7</v>
       </c>
       <c r="F606" t="s">
-        <v>722</v>
+        <v>261</v>
       </c>
       <c r="G606" t="s">
-        <v>1078</v>
+        <v>262</v>
       </c>
       <c r="H606" t="s">
         <v>7</v>
@@ -19904,13 +19957,13 @@
     </row>
     <row r="607" spans="1:8">
       <c r="A607" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="B607" t="s">
         <v>9</v>
       </c>
       <c r="C607" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D607" t="s">
         <v>11</v>
@@ -19919,10 +19972,10 @@
         <v>7</v>
       </c>
       <c r="F607" t="s">
-        <v>722</v>
+        <v>261</v>
       </c>
       <c r="G607" t="s">
-        <v>1078</v>
+        <v>262</v>
       </c>
       <c r="H607" t="s">
         <v>7</v>
@@ -19930,13 +19983,13 @@
     </row>
     <row r="608" spans="1:8">
       <c r="A608" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B608" t="s">
         <v>9</v>
       </c>
       <c r="C608" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D608" t="s">
         <v>11</v>
@@ -19945,10 +19998,10 @@
         <v>7</v>
       </c>
       <c r="F608" t="s">
-        <v>1080</v>
+        <v>261</v>
       </c>
       <c r="G608" t="s">
-        <v>1081</v>
+        <v>262</v>
       </c>
       <c r="H608" t="s">
         <v>7</v>
@@ -19956,13 +20009,13 @@
     </row>
     <row r="609" spans="1:8">
       <c r="A609" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B609" t="s">
         <v>9</v>
       </c>
       <c r="C609" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D609" t="s">
         <v>11</v>
@@ -19971,10 +20024,10 @@
         <v>7</v>
       </c>
       <c r="F609" t="s">
-        <v>1082</v>
+        <v>261</v>
       </c>
       <c r="G609" t="s">
-        <v>1083</v>
+        <v>262</v>
       </c>
       <c r="H609" t="s">
         <v>7</v>
@@ -19982,13 +20035,13 @@
     </row>
     <row r="610" spans="1:8">
       <c r="A610" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B610" t="s">
         <v>9</v>
       </c>
       <c r="C610" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D610" t="s">
         <v>11</v>
@@ -19997,10 +20050,10 @@
         <v>7</v>
       </c>
       <c r="F610" t="s">
-        <v>424</v>
+        <v>24</v>
       </c>
       <c r="G610" t="s">
-        <v>425</v>
+        <v>25</v>
       </c>
       <c r="H610" t="s">
         <v>7</v>
@@ -20008,13 +20061,13 @@
     </row>
     <row r="611" spans="1:8">
       <c r="A611" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B611" t="s">
         <v>9</v>
       </c>
       <c r="C611" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D611" t="s">
         <v>11</v>
@@ -20023,10 +20076,10 @@
         <v>7</v>
       </c>
       <c r="F611" t="s">
-        <v>1084</v>
+        <v>24</v>
       </c>
       <c r="G611" t="s">
-        <v>1085</v>
+        <v>25</v>
       </c>
       <c r="H611" t="s">
         <v>7</v>
@@ -20034,13 +20087,13 @@
     </row>
     <row r="612" spans="1:8">
       <c r="A612" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B612" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C612" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="D612" t="s">
         <v>11</v>
@@ -20049,10 +20102,10 @@
         <v>7</v>
       </c>
       <c r="F612" t="s">
-        <v>1080</v>
+        <v>698</v>
       </c>
       <c r="G612" t="s">
-        <v>1089</v>
+        <v>699</v>
       </c>
       <c r="H612" t="s">
         <v>7</v>
@@ -20060,14 +20113,14 @@
     </row>
     <row r="613" spans="1:8">
       <c r="A613" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C613" t="s">
         <v>1086</v>
       </c>
-      <c r="B613" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1090</v>
-      </c>
       <c r="D613" t="s">
         <v>11</v>
       </c>
@@ -20075,10 +20128,10 @@
         <v>7</v>
       </c>
       <c r="F613" t="s">
-        <v>1082</v>
+        <v>698</v>
       </c>
       <c r="G613" t="s">
-        <v>1091</v>
+        <v>699</v>
       </c>
       <c r="H613" t="s">
         <v>7</v>
@@ -20086,13 +20139,13 @@
     </row>
     <row r="614" spans="1:8">
       <c r="A614" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B614" t="s">
-        <v>1087</v>
+        <v>9</v>
       </c>
       <c r="C614" t="s">
-        <v>1092</v>
+        <v>10</v>
       </c>
       <c r="D614" t="s">
         <v>11</v>
@@ -20101,10 +20154,10 @@
         <v>7</v>
       </c>
       <c r="F614" t="s">
-        <v>424</v>
+        <v>1088</v>
       </c>
       <c r="G614" t="s">
-        <v>425</v>
+        <v>1089</v>
       </c>
       <c r="H614" t="s">
         <v>7</v>
@@ -20112,13 +20165,13 @@
     </row>
     <row r="615" spans="1:8">
       <c r="A615" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B615" t="s">
-        <v>1087</v>
+        <v>9</v>
       </c>
       <c r="C615" t="s">
-        <v>1093</v>
+        <v>17</v>
       </c>
       <c r="D615" t="s">
         <v>11</v>
@@ -20127,10 +20180,10 @@
         <v>7</v>
       </c>
       <c r="F615" t="s">
-        <v>1084</v>
+        <v>188</v>
       </c>
       <c r="G615" t="s">
-        <v>1085</v>
+        <v>189</v>
       </c>
       <c r="H615" t="s">
         <v>7</v>
@@ -20138,13 +20191,13 @@
     </row>
     <row r="616" spans="1:8">
       <c r="A616" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B616" t="s">
-        <v>1095</v>
+        <v>9</v>
       </c>
       <c r="C616" t="s">
-        <v>1096</v>
+        <v>10</v>
       </c>
       <c r="D616" t="s">
         <v>11</v>
@@ -20153,10 +20206,10 @@
         <v>7</v>
       </c>
       <c r="F616" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="G616" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="H616" t="s">
         <v>7</v>
@@ -20164,13 +20217,13 @@
     </row>
     <row r="617" spans="1:8">
       <c r="A617" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B617" t="s">
-        <v>1095</v>
+        <v>9</v>
       </c>
       <c r="C617" t="s">
-        <v>1099</v>
+        <v>17</v>
       </c>
       <c r="D617" t="s">
         <v>11</v>
@@ -20179,10 +20232,10 @@
         <v>7</v>
       </c>
       <c r="F617" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="G617" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="H617" t="s">
         <v>7</v>
@@ -20190,25 +20243,25 @@
     </row>
     <row r="618" spans="1:8">
       <c r="A618" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B618" t="s">
+        <v>9</v>
+      </c>
+      <c r="C618" t="s">
+        <v>10</v>
+      </c>
+      <c r="D618" t="s">
+        <v>11</v>
+      </c>
+      <c r="E618" t="s">
+        <v>7</v>
+      </c>
+      <c r="F618" t="s">
         <v>1094</v>
       </c>
-      <c r="B618" t="s">
+      <c r="G618" t="s">
         <v>1095</v>
-      </c>
-      <c r="C618" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D618" t="s">
-        <v>11</v>
-      </c>
-      <c r="E618" t="s">
-        <v>7</v>
-      </c>
-      <c r="F618" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G618" t="s">
-        <v>1104</v>
       </c>
       <c r="H618" t="s">
         <v>7</v>
@@ -20216,25 +20269,25 @@
     </row>
     <row r="619" spans="1:8">
       <c r="A619" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B619" t="s">
+        <v>9</v>
+      </c>
+      <c r="C619" t="s">
+        <v>17</v>
+      </c>
+      <c r="D619" t="s">
+        <v>11</v>
+      </c>
+      <c r="E619" t="s">
+        <v>7</v>
+      </c>
+      <c r="F619" t="s">
         <v>1094</v>
       </c>
-      <c r="B619" t="s">
+      <c r="G619" t="s">
         <v>1095</v>
-      </c>
-      <c r="C619" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D619" t="s">
-        <v>11</v>
-      </c>
-      <c r="E619" t="s">
-        <v>7</v>
-      </c>
-      <c r="F619" t="s">
-        <v>1106</v>
-      </c>
-      <c r="G619" t="s">
-        <v>1107</v>
       </c>
       <c r="H619" t="s">
         <v>7</v>
@@ -20242,13 +20295,13 @@
     </row>
     <row r="620" spans="1:8">
       <c r="A620" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="B620" t="s">
         <v>9</v>
       </c>
       <c r="C620" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D620" t="s">
         <v>11</v>
@@ -20257,10 +20310,10 @@
         <v>7</v>
       </c>
       <c r="F620" t="s">
-        <v>103</v>
+        <v>1094</v>
       </c>
       <c r="G620" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="H620" t="s">
         <v>7</v>
@@ -20268,13 +20321,13 @@
     </row>
     <row r="621" spans="1:8">
       <c r="A621" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="B621" t="s">
         <v>9</v>
       </c>
       <c r="C621" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D621" t="s">
         <v>11</v>
@@ -20283,10 +20336,10 @@
         <v>7</v>
       </c>
       <c r="F621" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="G621" t="s">
-        <v>1111</v>
+        <v>312</v>
       </c>
       <c r="H621" t="s">
         <v>7</v>
@@ -20294,13 +20347,13 @@
     </row>
     <row r="622" spans="1:8">
       <c r="A622" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="B622" t="s">
         <v>9</v>
       </c>
       <c r="C622" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D622" t="s">
         <v>11</v>
@@ -20309,10 +20362,10 @@
         <v>7</v>
       </c>
       <c r="F622" t="s">
-        <v>1112</v>
+        <v>722</v>
       </c>
       <c r="G622" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="H622" t="s">
         <v>7</v>
@@ -20320,13 +20373,13 @@
     </row>
     <row r="623" spans="1:8">
       <c r="A623" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="B623" t="s">
         <v>9</v>
       </c>
       <c r="C623" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D623" t="s">
         <v>11</v>
@@ -20335,10 +20388,10 @@
         <v>7</v>
       </c>
       <c r="F623" t="s">
-        <v>1115</v>
+        <v>722</v>
       </c>
       <c r="G623" t="s">
-        <v>1116</v>
+        <v>1098</v>
       </c>
       <c r="H623" t="s">
         <v>7</v>
@@ -20346,7 +20399,7 @@
     </row>
     <row r="624" spans="1:8">
       <c r="A624" t="s">
-        <v>1117</v>
+        <v>1099</v>
       </c>
       <c r="B624" t="s">
         <v>9</v>
@@ -20361,10 +20414,10 @@
         <v>7</v>
       </c>
       <c r="F624" t="s">
-        <v>1118</v>
+        <v>1100</v>
       </c>
       <c r="G624" t="s">
-        <v>1119</v>
+        <v>1101</v>
       </c>
       <c r="H624" t="s">
         <v>7</v>
@@ -20372,7 +20425,7 @@
     </row>
     <row r="625" spans="1:8">
       <c r="A625" t="s">
-        <v>1117</v>
+        <v>1099</v>
       </c>
       <c r="B625" t="s">
         <v>9</v>
@@ -20387,10 +20440,10 @@
         <v>7</v>
       </c>
       <c r="F625" t="s">
-        <v>1118</v>
+        <v>1102</v>
       </c>
       <c r="G625" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
       <c r="H625" t="s">
         <v>7</v>
@@ -20398,13 +20451,13 @@
     </row>
     <row r="626" spans="1:8">
       <c r="A626" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="B626" t="s">
-        <v>1121</v>
+        <v>9</v>
       </c>
       <c r="C626" t="s">
-        <v>1122</v>
+        <v>20</v>
       </c>
       <c r="D626" t="s">
         <v>11</v>
@@ -20413,10 +20466,10 @@
         <v>7</v>
       </c>
       <c r="F626" t="s">
-        <v>63</v>
+        <v>424</v>
       </c>
       <c r="G626" t="s">
-        <v>64</v>
+        <v>425</v>
       </c>
       <c r="H626" t="s">
         <v>7</v>
@@ -20424,13 +20477,13 @@
     </row>
     <row r="627" spans="1:8">
       <c r="A627" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="B627" t="s">
-        <v>1121</v>
+        <v>9</v>
       </c>
       <c r="C627" t="s">
-        <v>1123</v>
+        <v>23</v>
       </c>
       <c r="D627" t="s">
         <v>11</v>
@@ -20439,10 +20492,10 @@
         <v>7</v>
       </c>
       <c r="F627" t="s">
-        <v>1124</v>
+        <v>1104</v>
       </c>
       <c r="G627" t="s">
-        <v>1125</v>
+        <v>1105</v>
       </c>
       <c r="H627" t="s">
         <v>7</v>
@@ -20450,13 +20503,13 @@
     </row>
     <row r="628" spans="1:8">
       <c r="A628" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="B628" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="C628" t="s">
-        <v>1126</v>
+        <v>1108</v>
       </c>
       <c r="D628" t="s">
         <v>11</v>
@@ -20465,10 +20518,10 @@
         <v>7</v>
       </c>
       <c r="F628" t="s">
-        <v>1127</v>
+        <v>1100</v>
       </c>
       <c r="G628" t="s">
-        <v>1128</v>
+        <v>1109</v>
       </c>
       <c r="H628" t="s">
         <v>7</v>
@@ -20476,13 +20529,13 @@
     </row>
     <row r="629" spans="1:8">
       <c r="A629" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="B629" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="C629" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="D629" t="s">
         <v>11</v>
@@ -20491,10 +20544,10 @@
         <v>7</v>
       </c>
       <c r="F629" t="s">
-        <v>1130</v>
+        <v>1102</v>
       </c>
       <c r="G629" t="s">
-        <v>1131</v>
+        <v>1111</v>
       </c>
       <c r="H629" t="s">
         <v>7</v>
@@ -20502,13 +20555,13 @@
     </row>
     <row r="630" spans="1:8">
       <c r="A630" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="B630" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="C630" t="s">
-        <v>1132</v>
+        <v>1112</v>
       </c>
       <c r="D630" t="s">
         <v>11</v>
@@ -20517,10 +20570,10 @@
         <v>7</v>
       </c>
       <c r="F630" t="s">
-        <v>216</v>
+        <v>424</v>
       </c>
       <c r="G630" t="s">
-        <v>217</v>
+        <v>425</v>
       </c>
       <c r="H630" t="s">
         <v>7</v>
@@ -20528,13 +20581,13 @@
     </row>
     <row r="631" spans="1:8">
       <c r="A631" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="B631" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="C631" t="s">
-        <v>1133</v>
+        <v>1113</v>
       </c>
       <c r="D631" t="s">
         <v>11</v>
@@ -20543,10 +20596,10 @@
         <v>7</v>
       </c>
       <c r="F631" t="s">
-        <v>67</v>
+        <v>1104</v>
       </c>
       <c r="G631" t="s">
-        <v>68</v>
+        <v>1105</v>
       </c>
       <c r="H631" t="s">
         <v>7</v>
@@ -20554,13 +20607,13 @@
     </row>
     <row r="632" spans="1:8">
       <c r="A632" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B632" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C632" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
       <c r="D632" t="s">
         <v>11</v>
@@ -20569,10 +20622,10 @@
         <v>7</v>
       </c>
       <c r="F632" t="s">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="G632" t="s">
-        <v>1136</v>
+        <v>1118</v>
       </c>
       <c r="H632" t="s">
         <v>7</v>
@@ -20580,25 +20633,25 @@
     </row>
     <row r="633" spans="1:8">
       <c r="A633" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D633" t="s">
+        <v>11</v>
+      </c>
+      <c r="E633" t="s">
+        <v>7</v>
+      </c>
+      <c r="F633" t="s">
         <v>1120</v>
       </c>
-      <c r="B633" t="s">
+      <c r="G633" t="s">
         <v>1121</v>
-      </c>
-      <c r="C633" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D633" t="s">
-        <v>11</v>
-      </c>
-      <c r="E633" t="s">
-        <v>7</v>
-      </c>
-      <c r="F633" t="s">
-        <v>298</v>
-      </c>
-      <c r="G633" t="s">
-        <v>299</v>
       </c>
       <c r="H633" t="s">
         <v>7</v>
@@ -20606,13 +20659,13 @@
     </row>
     <row r="634" spans="1:8">
       <c r="A634" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B634" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C634" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
       <c r="D634" t="s">
         <v>11</v>
@@ -20621,10 +20674,10 @@
         <v>7</v>
       </c>
       <c r="F634" t="s">
-        <v>1139</v>
+        <v>1123</v>
       </c>
       <c r="G634" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
       <c r="H634" t="s">
         <v>7</v>
@@ -20632,13 +20685,13 @@
     </row>
     <row r="635" spans="1:8">
       <c r="A635" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B635" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C635" t="s">
-        <v>1141</v>
+        <v>1125</v>
       </c>
       <c r="D635" t="s">
         <v>11</v>
@@ -20647,10 +20700,10 @@
         <v>7</v>
       </c>
       <c r="F635" t="s">
-        <v>316</v>
+        <v>1126</v>
       </c>
       <c r="G635" t="s">
-        <v>317</v>
+        <v>1127</v>
       </c>
       <c r="H635" t="s">
         <v>7</v>
@@ -20658,13 +20711,13 @@
     </row>
     <row r="636" spans="1:8">
       <c r="A636" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="B636" t="s">
-        <v>1121</v>
+        <v>9</v>
       </c>
       <c r="C636" t="s">
-        <v>1142</v>
+        <v>10</v>
       </c>
       <c r="D636" t="s">
         <v>11</v>
@@ -20673,10 +20726,10 @@
         <v>7</v>
       </c>
       <c r="F636" t="s">
-        <v>1143</v>
+        <v>103</v>
       </c>
       <c r="G636" t="s">
-        <v>299</v>
+        <v>1129</v>
       </c>
       <c r="H636" t="s">
         <v>7</v>
@@ -20684,13 +20737,13 @@
     </row>
     <row r="637" spans="1:8">
       <c r="A637" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="B637" t="s">
-        <v>1121</v>
+        <v>9</v>
       </c>
       <c r="C637" t="s">
-        <v>1144</v>
+        <v>17</v>
       </c>
       <c r="D637" t="s">
         <v>11</v>
@@ -20699,10 +20752,10 @@
         <v>7</v>
       </c>
       <c r="F637" t="s">
-        <v>1145</v>
+        <v>1130</v>
       </c>
       <c r="G637" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="H637" t="s">
         <v>7</v>
@@ -20710,13 +20763,13 @@
     </row>
     <row r="638" spans="1:8">
       <c r="A638" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="B638" t="s">
-        <v>1121</v>
+        <v>9</v>
       </c>
       <c r="C638" t="s">
-        <v>1147</v>
+        <v>20</v>
       </c>
       <c r="D638" t="s">
         <v>11</v>
@@ -20725,10 +20778,10 @@
         <v>7</v>
       </c>
       <c r="F638" t="s">
-        <v>1148</v>
+        <v>1132</v>
       </c>
       <c r="G638" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
       <c r="H638" t="s">
         <v>7</v>
@@ -20736,13 +20789,13 @@
     </row>
     <row r="639" spans="1:8">
       <c r="A639" t="s">
-        <v>1120</v>
+        <v>1134</v>
       </c>
       <c r="B639" t="s">
-        <v>1121</v>
+        <v>9</v>
       </c>
       <c r="C639" t="s">
-        <v>1150</v>
+        <v>10</v>
       </c>
       <c r="D639" t="s">
         <v>11</v>
@@ -20751,10 +20804,10 @@
         <v>7</v>
       </c>
       <c r="F639" t="s">
-        <v>59</v>
+        <v>1135</v>
       </c>
       <c r="G639" t="s">
-        <v>60</v>
+        <v>1136</v>
       </c>
       <c r="H639" t="s">
         <v>7</v>
@@ -20762,13 +20815,13 @@
     </row>
     <row r="640" spans="1:8">
       <c r="A640" t="s">
-        <v>1120</v>
+        <v>1137</v>
       </c>
       <c r="B640" t="s">
-        <v>1121</v>
+        <v>9</v>
       </c>
       <c r="C640" t="s">
-        <v>1151</v>
+        <v>10</v>
       </c>
       <c r="D640" t="s">
         <v>11</v>
@@ -20777,10 +20830,10 @@
         <v>7</v>
       </c>
       <c r="F640" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
       <c r="G640" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
       <c r="H640" t="s">
         <v>7</v>
@@ -20788,13 +20841,13 @@
     </row>
     <row r="641" spans="1:8">
       <c r="A641" t="s">
-        <v>1120</v>
+        <v>1137</v>
       </c>
       <c r="B641" t="s">
-        <v>1121</v>
+        <v>9</v>
       </c>
       <c r="C641" t="s">
-        <v>1154</v>
+        <v>17</v>
       </c>
       <c r="D641" t="s">
         <v>11</v>
@@ -20803,10 +20856,10 @@
         <v>7</v>
       </c>
       <c r="F641" t="s">
-        <v>1155</v>
+        <v>1138</v>
       </c>
       <c r="G641" t="s">
-        <v>1156</v>
+        <v>1139</v>
       </c>
       <c r="H641" t="s">
         <v>7</v>
@@ -20814,13 +20867,13 @@
     </row>
     <row r="642" spans="1:8">
       <c r="A642" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B642" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C642" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="D642" t="s">
         <v>11</v>
@@ -20829,10 +20882,10 @@
         <v>7</v>
       </c>
       <c r="F642" t="s">
-        <v>1158</v>
+        <v>63</v>
       </c>
       <c r="G642" t="s">
-        <v>1159</v>
+        <v>64</v>
       </c>
       <c r="H642" t="s">
         <v>7</v>
@@ -20840,13 +20893,13 @@
     </row>
     <row r="643" spans="1:8">
       <c r="A643" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B643" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C643" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="D643" t="s">
         <v>11</v>
@@ -20855,10 +20908,10 @@
         <v>7</v>
       </c>
       <c r="F643" t="s">
-        <v>1161</v>
+        <v>1144</v>
       </c>
       <c r="G643" t="s">
-        <v>1162</v>
+        <v>1145</v>
       </c>
       <c r="H643" t="s">
         <v>7</v>
@@ -20866,13 +20919,13 @@
     </row>
     <row r="644" spans="1:8">
       <c r="A644" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B644" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C644" t="s">
-        <v>1163</v>
+        <v>1146</v>
       </c>
       <c r="D644" t="s">
         <v>11</v>
@@ -20881,10 +20934,10 @@
         <v>7</v>
       </c>
       <c r="F644" t="s">
-        <v>1164</v>
+        <v>1147</v>
       </c>
       <c r="G644" t="s">
-        <v>1165</v>
+        <v>1148</v>
       </c>
       <c r="H644" t="s">
         <v>7</v>
@@ -20892,13 +20945,13 @@
     </row>
     <row r="645" spans="1:8">
       <c r="A645" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B645" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C645" t="s">
-        <v>1166</v>
+        <v>1149</v>
       </c>
       <c r="D645" t="s">
         <v>11</v>
@@ -20907,10 +20960,10 @@
         <v>7</v>
       </c>
       <c r="F645" t="s">
-        <v>257</v>
+        <v>1150</v>
       </c>
       <c r="G645" t="s">
-        <v>258</v>
+        <v>1151</v>
       </c>
       <c r="H645" t="s">
         <v>7</v>
@@ -20918,13 +20971,13 @@
     </row>
     <row r="646" spans="1:8">
       <c r="A646" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B646" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C646" t="s">
-        <v>1167</v>
+        <v>1152</v>
       </c>
       <c r="D646" t="s">
         <v>11</v>
@@ -20933,10 +20986,10 @@
         <v>7</v>
       </c>
       <c r="F646" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="G646" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="H646" t="s">
         <v>7</v>
@@ -20944,13 +20997,13 @@
     </row>
     <row r="647" spans="1:8">
       <c r="A647" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B647" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C647" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D647" t="s">
         <v>11</v>
@@ -20959,10 +21012,10 @@
         <v>7</v>
       </c>
       <c r="F647" t="s">
-        <v>268</v>
+        <v>67</v>
       </c>
       <c r="G647" t="s">
-        <v>269</v>
+        <v>68</v>
       </c>
       <c r="H647" t="s">
         <v>7</v>
@@ -20970,13 +21023,13 @@
     </row>
     <row r="648" spans="1:8">
       <c r="A648" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B648" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C648" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="D648" t="s">
         <v>11</v>
@@ -20985,10 +21038,10 @@
         <v>7</v>
       </c>
       <c r="F648" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="G648" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="H648" t="s">
         <v>7</v>
@@ -20996,13 +21049,13 @@
     </row>
     <row r="649" spans="1:8">
       <c r="A649" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B649" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C649" t="s">
-        <v>1172</v>
+        <v>1157</v>
       </c>
       <c r="D649" t="s">
         <v>11</v>
@@ -21011,10 +21064,10 @@
         <v>7</v>
       </c>
       <c r="F649" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="G649" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="H649" t="s">
         <v>7</v>
@@ -21022,13 +21075,13 @@
     </row>
     <row r="650" spans="1:8">
       <c r="A650" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B650" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C650" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="D650" t="s">
         <v>11</v>
@@ -21037,10 +21090,10 @@
         <v>7</v>
       </c>
       <c r="F650" t="s">
-        <v>266</v>
+        <v>1159</v>
       </c>
       <c r="G650" t="s">
-        <v>267</v>
+        <v>1160</v>
       </c>
       <c r="H650" t="s">
         <v>7</v>
@@ -21048,13 +21101,13 @@
     </row>
     <row r="651" spans="1:8">
       <c r="A651" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B651" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C651" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
       <c r="D651" t="s">
         <v>11</v>
@@ -21063,10 +21116,10 @@
         <v>7</v>
       </c>
       <c r="F651" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="G651" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="H651" t="s">
         <v>7</v>
@@ -21074,13 +21127,13 @@
     </row>
     <row r="652" spans="1:8">
       <c r="A652" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B652" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C652" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
       <c r="D652" t="s">
         <v>11</v>
@@ -21089,10 +21142,10 @@
         <v>7</v>
       </c>
       <c r="F652" t="s">
-        <v>272</v>
+        <v>1163</v>
       </c>
       <c r="G652" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="H652" t="s">
         <v>7</v>
@@ -21100,13 +21153,13 @@
     </row>
     <row r="653" spans="1:8">
       <c r="A653" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B653" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C653" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="D653" t="s">
         <v>11</v>
@@ -21115,10 +21168,10 @@
         <v>7</v>
       </c>
       <c r="F653" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="G653" t="s">
-        <v>1128</v>
+        <v>1166</v>
       </c>
       <c r="H653" t="s">
         <v>7</v>
@@ -21126,13 +21179,13 @@
     </row>
     <row r="654" spans="1:8">
       <c r="A654" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B654" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C654" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
       <c r="D654" t="s">
         <v>11</v>
@@ -21141,10 +21194,10 @@
         <v>7</v>
       </c>
       <c r="F654" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
       <c r="G654" t="s">
-        <v>299</v>
+        <v>1169</v>
       </c>
       <c r="H654" t="s">
         <v>7</v>
@@ -21152,13 +21205,13 @@
     </row>
     <row r="655" spans="1:8">
       <c r="A655" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B655" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C655" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="D655" t="s">
         <v>11</v>
@@ -21167,10 +21220,10 @@
         <v>7</v>
       </c>
       <c r="F655" t="s">
-        <v>1181</v>
+        <v>59</v>
       </c>
       <c r="G655" t="s">
-        <v>1146</v>
+        <v>60</v>
       </c>
       <c r="H655" t="s">
         <v>7</v>
@@ -21178,13 +21231,13 @@
     </row>
     <row r="656" spans="1:8">
       <c r="A656" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B656" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C656" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="D656" t="s">
         <v>11</v>
@@ -21193,10 +21246,10 @@
         <v>7</v>
       </c>
       <c r="F656" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="G656" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
       <c r="H656" t="s">
         <v>7</v>
@@ -21204,13 +21257,13 @@
     </row>
     <row r="657" spans="1:8">
       <c r="A657" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B657" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C657" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="D657" t="s">
         <v>11</v>
@@ -21219,10 +21272,10 @@
         <v>7</v>
       </c>
       <c r="F657" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="G657" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="H657" t="s">
         <v>7</v>
@@ -21230,13 +21283,13 @@
     </row>
     <row r="658" spans="1:8">
       <c r="A658" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B658" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C658" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="D658" t="s">
         <v>11</v>
@@ -21245,10 +21298,10 @@
         <v>7</v>
       </c>
       <c r="F658" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="G658" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="H658" t="s">
         <v>7</v>
@@ -21256,13 +21309,13 @@
     </row>
     <row r="659" spans="1:8">
       <c r="A659" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B659" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C659" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="D659" t="s">
         <v>11</v>
@@ -21271,10 +21324,10 @@
         <v>7</v>
       </c>
       <c r="F659" t="s">
-        <v>93</v>
+        <v>1181</v>
       </c>
       <c r="G659" t="s">
-        <v>94</v>
+        <v>1182</v>
       </c>
       <c r="H659" t="s">
         <v>7</v>
@@ -21282,13 +21335,13 @@
     </row>
     <row r="660" spans="1:8">
       <c r="A660" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="B660" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="C660" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="D660" t="s">
         <v>11</v>
@@ -21297,10 +21350,10 @@
         <v>7</v>
       </c>
       <c r="F660" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="G660" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="H660" t="s">
         <v>7</v>
@@ -21308,13 +21361,13 @@
     </row>
     <row r="661" spans="1:8">
       <c r="A661" t="s">
-        <v>1195</v>
+        <v>1140</v>
       </c>
       <c r="B661" t="s">
-        <v>1196</v>
+        <v>1141</v>
       </c>
       <c r="C661" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="D661" t="s">
         <v>11</v>
@@ -21323,24 +21376,24 @@
         <v>7</v>
       </c>
       <c r="F661" t="s">
-        <v>1198</v>
+        <v>257</v>
       </c>
       <c r="G661" t="s">
-        <v>1199</v>
+        <v>258</v>
       </c>
       <c r="H661" t="s">
-        <v>1200</v>
+        <v>7</v>
       </c>
     </row>
     <row r="662" spans="1:8">
       <c r="A662" t="s">
-        <v>1195</v>
+        <v>1140</v>
       </c>
       <c r="B662" t="s">
-        <v>1196</v>
+        <v>1141</v>
       </c>
       <c r="C662" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="D662" t="s">
         <v>11</v>
@@ -21349,10 +21402,10 @@
         <v>7</v>
       </c>
       <c r="F662" t="s">
-        <v>1202</v>
+        <v>234</v>
       </c>
       <c r="G662" t="s">
-        <v>1203</v>
+        <v>235</v>
       </c>
       <c r="H662" t="s">
         <v>7</v>
@@ -21360,13 +21413,13 @@
     </row>
     <row r="663" spans="1:8">
       <c r="A663" t="s">
-        <v>1195</v>
+        <v>1140</v>
       </c>
       <c r="B663" t="s">
-        <v>1196</v>
+        <v>1141</v>
       </c>
       <c r="C663" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
       <c r="D663" t="s">
         <v>11</v>
@@ -21375,10 +21428,10 @@
         <v>7</v>
       </c>
       <c r="F663" t="s">
-        <v>1205</v>
+        <v>268</v>
       </c>
       <c r="G663" t="s">
-        <v>1206</v>
+        <v>269</v>
       </c>
       <c r="H663" t="s">
         <v>7</v>
@@ -21386,13 +21439,13 @@
     </row>
     <row r="664" spans="1:8">
       <c r="A664" t="s">
-        <v>1195</v>
+        <v>1140</v>
       </c>
       <c r="B664" t="s">
-        <v>1196</v>
+        <v>1141</v>
       </c>
       <c r="C664" t="s">
-        <v>1207</v>
+        <v>1189</v>
       </c>
       <c r="D664" t="s">
         <v>11</v>
@@ -21401,10 +21454,10 @@
         <v>7</v>
       </c>
       <c r="F664" t="s">
-        <v>1208</v>
+        <v>1190</v>
       </c>
       <c r="G664" t="s">
-        <v>1209</v>
+        <v>1191</v>
       </c>
       <c r="H664" t="s">
         <v>7</v>
@@ -21412,13 +21465,13 @@
     </row>
     <row r="665" spans="1:8">
       <c r="A665" t="s">
-        <v>1195</v>
+        <v>1140</v>
       </c>
       <c r="B665" t="s">
-        <v>1196</v>
+        <v>1141</v>
       </c>
       <c r="C665" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="D665" t="s">
         <v>11</v>
@@ -21427,10 +21480,10 @@
         <v>7</v>
       </c>
       <c r="F665" t="s">
-        <v>1211</v>
+        <v>264</v>
       </c>
       <c r="G665" t="s">
-        <v>1212</v>
+        <v>265</v>
       </c>
       <c r="H665" t="s">
         <v>7</v>
@@ -21438,13 +21491,13 @@
     </row>
     <row r="666" spans="1:8">
       <c r="A666" t="s">
-        <v>1195</v>
+        <v>1140</v>
       </c>
       <c r="B666" t="s">
-        <v>1196</v>
+        <v>1141</v>
       </c>
       <c r="C666" t="s">
-        <v>1213</v>
+        <v>1193</v>
       </c>
       <c r="D666" t="s">
         <v>11</v>
@@ -21453,10 +21506,10 @@
         <v>7</v>
       </c>
       <c r="F666" t="s">
-        <v>1214</v>
+        <v>266</v>
       </c>
       <c r="G666" t="s">
-        <v>1214</v>
+        <v>267</v>
       </c>
       <c r="H666" t="s">
         <v>7</v>
@@ -21464,13 +21517,13 @@
     </row>
     <row r="667" spans="1:8">
       <c r="A667" t="s">
-        <v>1195</v>
+        <v>1140</v>
       </c>
       <c r="B667" t="s">
-        <v>1196</v>
+        <v>1141</v>
       </c>
       <c r="C667" t="s">
-        <v>1215</v>
+        <v>1194</v>
       </c>
       <c r="D667" t="s">
         <v>11</v>
@@ -21479,10 +21532,10 @@
         <v>7</v>
       </c>
       <c r="F667" t="s">
-        <v>1216</v>
+        <v>270</v>
       </c>
       <c r="G667" t="s">
-        <v>1217</v>
+        <v>271</v>
       </c>
       <c r="H667" t="s">
         <v>7</v>
@@ -21490,14 +21543,14 @@
     </row>
     <row r="668" spans="1:8">
       <c r="A668" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C668" t="s">
         <v>1195</v>
       </c>
-      <c r="B668" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C668" t="s">
-        <v>1218</v>
-      </c>
       <c r="D668" t="s">
         <v>11</v>
       </c>
@@ -21505,10 +21558,10 @@
         <v>7</v>
       </c>
       <c r="F668" t="s">
-        <v>1219</v>
+        <v>272</v>
       </c>
       <c r="G668" t="s">
-        <v>1220</v>
+        <v>273</v>
       </c>
       <c r="H668" t="s">
         <v>7</v>
@@ -21516,13 +21569,13 @@
     </row>
     <row r="669" spans="1:8">
       <c r="A669" t="s">
-        <v>1221</v>
+        <v>1140</v>
       </c>
       <c r="B669" t="s">
-        <v>1222</v>
+        <v>1141</v>
       </c>
       <c r="C669" t="s">
-        <v>1223</v>
+        <v>1196</v>
       </c>
       <c r="D669" t="s">
         <v>11</v>
@@ -21531,10 +21584,10 @@
         <v>7</v>
       </c>
       <c r="F669" t="s">
-        <v>1224</v>
+        <v>1197</v>
       </c>
       <c r="G669" t="s">
-        <v>1225</v>
+        <v>1148</v>
       </c>
       <c r="H669" t="s">
         <v>7</v>
@@ -21542,13 +21595,13 @@
     </row>
     <row r="670" spans="1:8">
       <c r="A670" t="s">
-        <v>1221</v>
+        <v>1140</v>
       </c>
       <c r="B670" t="s">
-        <v>1222</v>
+        <v>1141</v>
       </c>
       <c r="C670" t="s">
-        <v>1226</v>
+        <v>1198</v>
       </c>
       <c r="D670" t="s">
         <v>11</v>
@@ -21557,10 +21610,10 @@
         <v>7</v>
       </c>
       <c r="F670" t="s">
-        <v>1227</v>
+        <v>1199</v>
       </c>
       <c r="G670" t="s">
-        <v>542</v>
+        <v>299</v>
       </c>
       <c r="H670" t="s">
         <v>7</v>
@@ -21568,13 +21621,13 @@
     </row>
     <row r="671" spans="1:8">
       <c r="A671" t="s">
-        <v>1221</v>
+        <v>1140</v>
       </c>
       <c r="B671" t="s">
-        <v>1222</v>
+        <v>1141</v>
       </c>
       <c r="C671" t="s">
-        <v>1228</v>
+        <v>1200</v>
       </c>
       <c r="D671" t="s">
         <v>11</v>
@@ -21583,10 +21636,10 @@
         <v>7</v>
       </c>
       <c r="F671" t="s">
-        <v>1229</v>
+        <v>1201</v>
       </c>
       <c r="G671" t="s">
-        <v>1230</v>
+        <v>1166</v>
       </c>
       <c r="H671" t="s">
         <v>7</v>
@@ -21594,13 +21647,13 @@
     </row>
     <row r="672" spans="1:8">
       <c r="A672" t="s">
-        <v>1221</v>
+        <v>1140</v>
       </c>
       <c r="B672" t="s">
-        <v>1222</v>
+        <v>1141</v>
       </c>
       <c r="C672" t="s">
-        <v>1231</v>
+        <v>1202</v>
       </c>
       <c r="D672" t="s">
         <v>11</v>
@@ -21609,10 +21662,10 @@
         <v>7</v>
       </c>
       <c r="F672" t="s">
-        <v>1232</v>
+        <v>1203</v>
       </c>
       <c r="G672" t="s">
-        <v>1233</v>
+        <v>1204</v>
       </c>
       <c r="H672" t="s">
         <v>7</v>
@@ -21620,13 +21673,13 @@
     </row>
     <row r="673" spans="1:8">
       <c r="A673" t="s">
-        <v>1221</v>
+        <v>1140</v>
       </c>
       <c r="B673" t="s">
-        <v>1222</v>
+        <v>1141</v>
       </c>
       <c r="C673" t="s">
-        <v>1234</v>
+        <v>1205</v>
       </c>
       <c r="D673" t="s">
         <v>11</v>
@@ -21635,10 +21688,10 @@
         <v>7</v>
       </c>
       <c r="F673" t="s">
-        <v>1235</v>
+        <v>1206</v>
       </c>
       <c r="G673" t="s">
-        <v>1236</v>
+        <v>1207</v>
       </c>
       <c r="H673" t="s">
         <v>7</v>
@@ -21646,13 +21699,13 @@
     </row>
     <row r="674" spans="1:8">
       <c r="A674" t="s">
-        <v>1221</v>
+        <v>1140</v>
       </c>
       <c r="B674" t="s">
-        <v>1222</v>
+        <v>1141</v>
       </c>
       <c r="C674" t="s">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="D674" t="s">
         <v>11</v>
@@ -21661,10 +21714,10 @@
         <v>7</v>
       </c>
       <c r="F674" t="s">
-        <v>1238</v>
+        <v>1209</v>
       </c>
       <c r="G674" t="s">
-        <v>1239</v>
+        <v>1210</v>
       </c>
       <c r="H674" t="s">
         <v>7</v>
@@ -21672,27 +21725,443 @@
     </row>
     <row r="675" spans="1:8">
       <c r="A675" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D675" t="s">
+        <v>11</v>
+      </c>
+      <c r="E675" t="s">
+        <v>7</v>
+      </c>
+      <c r="F675" t="s">
+        <v>93</v>
+      </c>
+      <c r="G675" t="s">
+        <v>94</v>
+      </c>
+      <c r="H675" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8">
+      <c r="A676" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D676" t="s">
+        <v>11</v>
+      </c>
+      <c r="E676" t="s">
+        <v>7</v>
+      </c>
+      <c r="F676" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G676" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H676" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8">
+      <c r="A677" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C677" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D677" t="s">
+        <v>11</v>
+      </c>
+      <c r="E677" t="s">
+        <v>7</v>
+      </c>
+      <c r="F677" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G677" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H677" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8">
+      <c r="A678" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C678" t="s">
         <v>1221</v>
       </c>
-      <c r="B675" t="s">
+      <c r="D678" t="s">
+        <v>11</v>
+      </c>
+      <c r="E678" t="s">
+        <v>7</v>
+      </c>
+      <c r="F678" t="s">
         <v>1222</v>
       </c>
-      <c r="C675" t="s">
+      <c r="G678" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H678" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8">
+      <c r="A679" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D679" t="s">
+        <v>11</v>
+      </c>
+      <c r="E679" t="s">
+        <v>7</v>
+      </c>
+      <c r="F679" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G679" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H679" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8">
+      <c r="A680" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D680" t="s">
+        <v>11</v>
+      </c>
+      <c r="E680" t="s">
+        <v>7</v>
+      </c>
+      <c r="F680" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G680" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H680" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8">
+      <c r="A681" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D681" t="s">
+        <v>11</v>
+      </c>
+      <c r="E681" t="s">
+        <v>7</v>
+      </c>
+      <c r="F681" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G681" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H681" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8">
+      <c r="A682" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D682" t="s">
+        <v>11</v>
+      </c>
+      <c r="E682" t="s">
+        <v>7</v>
+      </c>
+      <c r="F682" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G682" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H682" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8">
+      <c r="A683" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D683" t="s">
+        <v>11</v>
+      </c>
+      <c r="E683" t="s">
+        <v>7</v>
+      </c>
+      <c r="F683" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G683" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H683" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8">
+      <c r="A684" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D684" t="s">
+        <v>11</v>
+      </c>
+      <c r="E684" t="s">
+        <v>7</v>
+      </c>
+      <c r="F684" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G684" t="s">
         <v>1240</v>
       </c>
-      <c r="D675" t="s">
-        <v>11</v>
-      </c>
-      <c r="E675" t="s">
-        <v>7</v>
-      </c>
-      <c r="F675" t="s">
+      <c r="H684" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8">
+      <c r="A685" t="s">
         <v>1241</v>
       </c>
-      <c r="G675" t="s">
+      <c r="B685" t="s">
         <v>1242</v>
       </c>
-      <c r="H675" t="s">
+      <c r="C685" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D685" t="s">
+        <v>11</v>
+      </c>
+      <c r="E685" t="s">
+        <v>7</v>
+      </c>
+      <c r="F685" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G685" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H685" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8">
+      <c r="A686" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D686" t="s">
+        <v>11</v>
+      </c>
+      <c r="E686" t="s">
+        <v>7</v>
+      </c>
+      <c r="F686" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G686" t="s">
+        <v>542</v>
+      </c>
+      <c r="H686" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8">
+      <c r="A687" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D687" t="s">
+        <v>11</v>
+      </c>
+      <c r="E687" t="s">
+        <v>7</v>
+      </c>
+      <c r="F687" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G687" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H687" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8">
+      <c r="A688" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D688" t="s">
+        <v>11</v>
+      </c>
+      <c r="E688" t="s">
+        <v>7</v>
+      </c>
+      <c r="F688" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G688" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H688" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8">
+      <c r="A689" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D689" t="s">
+        <v>11</v>
+      </c>
+      <c r="E689" t="s">
+        <v>7</v>
+      </c>
+      <c r="F689" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G689" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H689" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8">
+      <c r="A690" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D690" t="s">
+        <v>11</v>
+      </c>
+      <c r="E690" t="s">
+        <v>7</v>
+      </c>
+      <c r="F690" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G690" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H690" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8">
+      <c r="A691" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D691" t="s">
+        <v>11</v>
+      </c>
+      <c r="E691" t="s">
+        <v>7</v>
+      </c>
+      <c r="F691" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G691" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H691" t="s">
         <v>7</v>
       </c>
     </row>
